--- a/generated-files/BuildingUpgrade.xlsx
+++ b/generated-files/BuildingUpgrade.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28221"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\java\generated-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{484EAC6F-F848-48D6-ABB9-CB1E264B3FA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8385D61-42ED-481D-98C6-AAD9F9C1DE0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2595" yWindow="2595" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="42510" yWindow="-16665" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BuildingUpgrade" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -24,9 +23,6 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="41">
   <si>
     <t>建筑升级ID</t>
-  </si>
-  <si>
-    <t>buildingUpgradeId</t>
   </si>
   <si>
     <t>建筑模板ID</t>
@@ -192,6 +188,10 @@
         }
     ]
 }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -561,8 +561,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:I597"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A119" workbookViewId="0">
-      <selection activeCell="H143" sqref="H143"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -580,57 +580,57 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" t="s">
         <v>14</v>
-      </c>
-      <c r="I1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="51" customHeight="1" x14ac:dyDescent="0.2">
@@ -656,10 +656,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -685,10 +685,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -714,10 +714,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -743,10 +743,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -772,10 +772,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -801,10 +801,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -830,10 +830,10 @@
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -859,10 +859,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -888,10 +888,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -917,10 +917,10 @@
         <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -946,10 +946,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -975,10 +975,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -1004,10 +1004,10 @@
         <v>0</v>
       </c>
       <c r="H15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -1033,10 +1033,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
@@ -1062,10 +1062,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
@@ -1091,10 +1091,10 @@
         <v>0</v>
       </c>
       <c r="H18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
@@ -1120,10 +1120,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
@@ -1149,10 +1149,10 @@
         <v>0</v>
       </c>
       <c r="H20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
@@ -1178,10 +1178,10 @@
         <v>0</v>
       </c>
       <c r="H21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
@@ -1207,10 +1207,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
@@ -1236,10 +1236,10 @@
         <v>0</v>
       </c>
       <c r="H23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
@@ -1265,10 +1265,10 @@
         <v>0</v>
       </c>
       <c r="H24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
@@ -1294,10 +1294,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I25" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
@@ -1323,10 +1323,10 @@
         <v>0</v>
       </c>
       <c r="H26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
@@ -1352,10 +1352,10 @@
         <v>0</v>
       </c>
       <c r="H27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I27" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
@@ -1381,10 +1381,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I28" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
@@ -1410,10 +1410,10 @@
         <v>0</v>
       </c>
       <c r="H29" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I29" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
@@ -1439,10 +1439,10 @@
         <v>0</v>
       </c>
       <c r="H30" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
@@ -1468,10 +1468,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
@@ -1497,10 +1497,10 @@
         <v>0</v>
       </c>
       <c r="H32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I32" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
@@ -1526,10 +1526,10 @@
         <v>0</v>
       </c>
       <c r="H33" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I33" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
@@ -1555,10 +1555,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I34" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
@@ -1584,10 +1584,10 @@
         <v>0</v>
       </c>
       <c r="H35" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I35" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
@@ -1613,10 +1613,10 @@
         <v>0</v>
       </c>
       <c r="H36" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I36" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
@@ -1642,10 +1642,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I37" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
@@ -1671,10 +1671,10 @@
         <v>0</v>
       </c>
       <c r="H38" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I38" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
@@ -1700,10 +1700,10 @@
         <v>0</v>
       </c>
       <c r="H39" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I39" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
@@ -1729,10 +1729,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I40" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
@@ -1758,10 +1758,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I41" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
@@ -1787,10 +1787,10 @@
         <v>0</v>
       </c>
       <c r="H42" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I42" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
@@ -1816,10 +1816,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I43" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
@@ -1845,10 +1845,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I44" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
@@ -1874,10 +1874,10 @@
         <v>0</v>
       </c>
       <c r="H45" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I45" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
@@ -1903,10 +1903,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I46" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
@@ -1932,10 +1932,10 @@
         <v>0</v>
       </c>
       <c r="H47" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I47" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
@@ -1961,10 +1961,10 @@
         <v>0</v>
       </c>
       <c r="H48" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I48" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
@@ -1990,10 +1990,10 @@
         <v>0</v>
       </c>
       <c r="H49" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I49" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
@@ -2019,10 +2019,10 @@
         <v>0</v>
       </c>
       <c r="H50" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I50" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
@@ -2048,10 +2048,10 @@
         <v>0</v>
       </c>
       <c r="H51" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I51" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
@@ -2077,10 +2077,10 @@
         <v>0</v>
       </c>
       <c r="H52" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I52" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
@@ -2106,10 +2106,10 @@
         <v>0</v>
       </c>
       <c r="H53" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I53" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
@@ -2135,10 +2135,10 @@
         <v>0</v>
       </c>
       <c r="H54" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I54" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
@@ -2164,10 +2164,10 @@
         <v>0</v>
       </c>
       <c r="H55" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I55" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
@@ -2193,10 +2193,10 @@
         <v>0</v>
       </c>
       <c r="H56" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I56" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
@@ -2222,10 +2222,10 @@
         <v>0</v>
       </c>
       <c r="H57" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I57" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
@@ -2251,10 +2251,10 @@
         <v>0</v>
       </c>
       <c r="H58" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I58" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
@@ -2280,10 +2280,10 @@
         <v>0</v>
       </c>
       <c r="H59" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I59" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
@@ -2309,10 +2309,10 @@
         <v>0</v>
       </c>
       <c r="H60" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I60" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
@@ -2338,10 +2338,10 @@
         <v>0</v>
       </c>
       <c r="H61" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I61" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
@@ -2367,10 +2367,10 @@
         <v>0</v>
       </c>
       <c r="H62" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I62" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
@@ -2396,10 +2396,10 @@
         <v>0</v>
       </c>
       <c r="H63" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I63" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
@@ -2425,10 +2425,10 @@
         <v>0</v>
       </c>
       <c r="H64" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I64" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.2">
@@ -2454,10 +2454,10 @@
         <v>0</v>
       </c>
       <c r="H65" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I65" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
@@ -2483,10 +2483,10 @@
         <v>0</v>
       </c>
       <c r="H66" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I66" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
@@ -2512,10 +2512,10 @@
         <v>0</v>
       </c>
       <c r="H67" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I67" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
@@ -2541,10 +2541,10 @@
         <v>0</v>
       </c>
       <c r="H68" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I68" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.2">
@@ -2570,10 +2570,10 @@
         <v>0</v>
       </c>
       <c r="H69" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I69" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.2">
@@ -2599,10 +2599,10 @@
         <v>0</v>
       </c>
       <c r="H70" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I70" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.2">
@@ -2628,10 +2628,10 @@
         <v>0</v>
       </c>
       <c r="H71" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I71" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.2">
@@ -2657,10 +2657,10 @@
         <v>0</v>
       </c>
       <c r="H72" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I72" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="73" spans="1:9" ht="128.25" x14ac:dyDescent="0.2">
@@ -2686,10 +2686,10 @@
         <v>0</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I73" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.2">
@@ -2715,7 +2715,7 @@
         <v>0</v>
       </c>
       <c r="I74" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.2">
@@ -2741,7 +2741,7 @@
         <v>0</v>
       </c>
       <c r="I75" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.2">
@@ -2767,7 +2767,7 @@
         <v>0</v>
       </c>
       <c r="I76" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.2">
@@ -2793,7 +2793,7 @@
         <v>0</v>
       </c>
       <c r="I77" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.2">
@@ -2819,7 +2819,7 @@
         <v>0</v>
       </c>
       <c r="I78" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.2">
@@ -2845,7 +2845,7 @@
         <v>0</v>
       </c>
       <c r="I79" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.2">
@@ -2871,7 +2871,7 @@
         <v>0</v>
       </c>
       <c r="I80" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.2">
@@ -2897,7 +2897,7 @@
         <v>0</v>
       </c>
       <c r="I81" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.2">
@@ -2923,7 +2923,7 @@
         <v>0</v>
       </c>
       <c r="I82" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.2">
@@ -2949,7 +2949,7 @@
         <v>0</v>
       </c>
       <c r="I83" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.2">
@@ -2975,7 +2975,7 @@
         <v>0</v>
       </c>
       <c r="I84" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.2">
@@ -3001,7 +3001,7 @@
         <v>0</v>
       </c>
       <c r="I85" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.2">
@@ -3027,7 +3027,7 @@
         <v>0</v>
       </c>
       <c r="I86" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.2">
@@ -3053,7 +3053,7 @@
         <v>0</v>
       </c>
       <c r="I87" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.2">
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="I88" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.2">
@@ -3105,7 +3105,7 @@
         <v>0</v>
       </c>
       <c r="I89" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.2">
@@ -3131,7 +3131,7 @@
         <v>0</v>
       </c>
       <c r="I90" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.2">
@@ -3157,7 +3157,7 @@
         <v>0</v>
       </c>
       <c r="I91" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.2">
@@ -3183,7 +3183,7 @@
         <v>0</v>
       </c>
       <c r="I92" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.2">
@@ -3209,7 +3209,7 @@
         <v>0</v>
       </c>
       <c r="I93" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.2">
@@ -3235,7 +3235,7 @@
         <v>0</v>
       </c>
       <c r="I94" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.2">
@@ -3261,7 +3261,7 @@
         <v>0</v>
       </c>
       <c r="I95" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.2">
@@ -3287,7 +3287,7 @@
         <v>0</v>
       </c>
       <c r="I96" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.2">
@@ -3313,7 +3313,7 @@
         <v>0</v>
       </c>
       <c r="I97" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.2">
@@ -3339,7 +3339,7 @@
         <v>0</v>
       </c>
       <c r="I98" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.2">
@@ -3365,7 +3365,7 @@
         <v>0</v>
       </c>
       <c r="I99" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.2">
@@ -3391,7 +3391,7 @@
         <v>0</v>
       </c>
       <c r="I100" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.2">
@@ -3417,7 +3417,7 @@
         <v>0</v>
       </c>
       <c r="I101" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.2">
@@ -3443,7 +3443,7 @@
         <v>0</v>
       </c>
       <c r="I102" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.2">
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="I103" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.2">
@@ -3495,7 +3495,7 @@
         <v>0</v>
       </c>
       <c r="I104" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.2">
@@ -3521,7 +3521,7 @@
         <v>0</v>
       </c>
       <c r="I105" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.2">
@@ -3547,7 +3547,7 @@
         <v>0</v>
       </c>
       <c r="I106" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.2">
@@ -3573,7 +3573,7 @@
         <v>0</v>
       </c>
       <c r="I107" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="108" spans="1:9" ht="270.75" x14ac:dyDescent="0.2">
@@ -3599,10 +3599,10 @@
         <v>0</v>
       </c>
       <c r="H108" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I108" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.2">
@@ -3628,7 +3628,7 @@
         <v>0</v>
       </c>
       <c r="I109" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.2">
@@ -3654,7 +3654,7 @@
         <v>0</v>
       </c>
       <c r="I110" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.2">
@@ -3680,7 +3680,7 @@
         <v>0</v>
       </c>
       <c r="I111" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.2">
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="I112" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.2">
@@ -3732,7 +3732,7 @@
         <v>0</v>
       </c>
       <c r="I113" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.2">
@@ -3758,7 +3758,7 @@
         <v>0</v>
       </c>
       <c r="I114" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.2">
@@ -3784,7 +3784,7 @@
         <v>0</v>
       </c>
       <c r="I115" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.2">
@@ -3810,7 +3810,7 @@
         <v>0</v>
       </c>
       <c r="I116" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.2">
@@ -3836,7 +3836,7 @@
         <v>0</v>
       </c>
       <c r="I117" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.2">
@@ -3862,7 +3862,7 @@
         <v>0</v>
       </c>
       <c r="I118" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.2">
@@ -3888,7 +3888,7 @@
         <v>0</v>
       </c>
       <c r="I119" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.2">
@@ -3914,7 +3914,7 @@
         <v>0</v>
       </c>
       <c r="I120" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.2">
@@ -3940,7 +3940,7 @@
         <v>0</v>
       </c>
       <c r="I121" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.2">
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="I122" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.2">
@@ -3992,7 +3992,7 @@
         <v>0</v>
       </c>
       <c r="I123" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.2">
@@ -4018,7 +4018,7 @@
         <v>0</v>
       </c>
       <c r="I124" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.2">
@@ -4044,7 +4044,7 @@
         <v>0</v>
       </c>
       <c r="I125" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.2">
@@ -4070,7 +4070,7 @@
         <v>0</v>
       </c>
       <c r="I126" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.2">
@@ -4096,7 +4096,7 @@
         <v>0</v>
       </c>
       <c r="I127" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.2">
@@ -4122,7 +4122,7 @@
         <v>0</v>
       </c>
       <c r="I128" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.2">
@@ -4148,7 +4148,7 @@
         <v>0</v>
       </c>
       <c r="I129" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.2">
@@ -4174,7 +4174,7 @@
         <v>0</v>
       </c>
       <c r="I130" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.2">
@@ -4200,7 +4200,7 @@
         <v>0</v>
       </c>
       <c r="I131" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.2">
@@ -4226,7 +4226,7 @@
         <v>0</v>
       </c>
       <c r="I132" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.2">
@@ -4252,7 +4252,7 @@
         <v>0</v>
       </c>
       <c r="I133" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.2">
@@ -4278,7 +4278,7 @@
         <v>0</v>
       </c>
       <c r="I134" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.2">
@@ -4304,7 +4304,7 @@
         <v>0</v>
       </c>
       <c r="I135" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.2">
@@ -4330,7 +4330,7 @@
         <v>0</v>
       </c>
       <c r="I136" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.2">
@@ -4356,7 +4356,7 @@
         <v>0</v>
       </c>
       <c r="I137" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.2">
@@ -4382,7 +4382,7 @@
         <v>0</v>
       </c>
       <c r="I138" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.2">
@@ -4408,7 +4408,7 @@
         <v>0</v>
       </c>
       <c r="I139" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.2">
@@ -4434,7 +4434,7 @@
         <v>0</v>
       </c>
       <c r="I140" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.2">
@@ -4460,7 +4460,7 @@
         <v>0</v>
       </c>
       <c r="I141" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.2">
@@ -4486,7 +4486,7 @@
         <v>0</v>
       </c>
       <c r="I142" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="143" spans="1:9" ht="270.75" x14ac:dyDescent="0.2">
@@ -4512,10 +4512,10 @@
         <v>0</v>
       </c>
       <c r="H143" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I143" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.2">
@@ -4541,7 +4541,7 @@
         <v>0</v>
       </c>
       <c r="I144" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.2">
@@ -4567,7 +4567,7 @@
         <v>0</v>
       </c>
       <c r="I145" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.2">
@@ -4593,7 +4593,7 @@
         <v>0</v>
       </c>
       <c r="I146" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.2">
@@ -4619,7 +4619,7 @@
         <v>0</v>
       </c>
       <c r="I147" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.2">
@@ -4645,7 +4645,7 @@
         <v>0</v>
       </c>
       <c r="I148" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.2">
@@ -4671,7 +4671,7 @@
         <v>0</v>
       </c>
       <c r="I149" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.2">
@@ -4697,7 +4697,7 @@
         <v>0</v>
       </c>
       <c r="I150" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.2">
@@ -4723,7 +4723,7 @@
         <v>0</v>
       </c>
       <c r="I151" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.2">
@@ -4749,7 +4749,7 @@
         <v>0</v>
       </c>
       <c r="I152" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.2">
@@ -4775,7 +4775,7 @@
         <v>0</v>
       </c>
       <c r="I153" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.2">
@@ -4801,7 +4801,7 @@
         <v>0</v>
       </c>
       <c r="I154" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.2">
@@ -4827,7 +4827,7 @@
         <v>0</v>
       </c>
       <c r="I155" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.2">
@@ -4853,7 +4853,7 @@
         <v>0</v>
       </c>
       <c r="I156" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.2">
@@ -4879,7 +4879,7 @@
         <v>0</v>
       </c>
       <c r="I157" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.2">
@@ -4905,7 +4905,7 @@
         <v>0</v>
       </c>
       <c r="I158" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.2">
@@ -4931,7 +4931,7 @@
         <v>0</v>
       </c>
       <c r="I159" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.2">
@@ -4957,7 +4957,7 @@
         <v>0</v>
       </c>
       <c r="I160" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.2">
@@ -4983,7 +4983,7 @@
         <v>0</v>
       </c>
       <c r="I161" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.2">
@@ -5009,7 +5009,7 @@
         <v>0</v>
       </c>
       <c r="I162" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.2">
@@ -5035,7 +5035,7 @@
         <v>0</v>
       </c>
       <c r="I163" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.2">
@@ -5061,7 +5061,7 @@
         <v>0</v>
       </c>
       <c r="I164" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.2">
@@ -5087,7 +5087,7 @@
         <v>0</v>
       </c>
       <c r="I165" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.2">
@@ -5113,7 +5113,7 @@
         <v>0</v>
       </c>
       <c r="I166" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.2">
@@ -5139,7 +5139,7 @@
         <v>0</v>
       </c>
       <c r="I167" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.2">
@@ -5165,7 +5165,7 @@
         <v>0</v>
       </c>
       <c r="I168" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.2">
@@ -5191,7 +5191,7 @@
         <v>0</v>
       </c>
       <c r="I169" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.2">
@@ -5217,7 +5217,7 @@
         <v>0</v>
       </c>
       <c r="I170" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.2">
@@ -5243,7 +5243,7 @@
         <v>0</v>
       </c>
       <c r="I171" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.2">
@@ -5269,7 +5269,7 @@
         <v>0</v>
       </c>
       <c r="I172" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.2">
@@ -5295,7 +5295,7 @@
         <v>0</v>
       </c>
       <c r="I173" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.2">
@@ -5321,7 +5321,7 @@
         <v>0</v>
       </c>
       <c r="I174" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.2">
@@ -5347,7 +5347,7 @@
         <v>0</v>
       </c>
       <c r="I175" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.2">
@@ -5373,7 +5373,7 @@
         <v>0</v>
       </c>
       <c r="I176" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.2">
@@ -5399,7 +5399,7 @@
         <v>0</v>
       </c>
       <c r="I177" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.2">
@@ -5425,7 +5425,7 @@
         <v>0</v>
       </c>
       <c r="I178" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.2">
@@ -5451,7 +5451,7 @@
         <v>0</v>
       </c>
       <c r="I179" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.2">
@@ -5477,7 +5477,7 @@
         <v>0</v>
       </c>
       <c r="I180" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.2">
@@ -5503,7 +5503,7 @@
         <v>0</v>
       </c>
       <c r="I181" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.2">
@@ -5529,7 +5529,7 @@
         <v>0</v>
       </c>
       <c r="I182" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.2">
@@ -5555,7 +5555,7 @@
         <v>0</v>
       </c>
       <c r="I183" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.2">
@@ -5581,7 +5581,7 @@
         <v>0</v>
       </c>
       <c r="I184" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.2">
@@ -5607,7 +5607,7 @@
         <v>0</v>
       </c>
       <c r="I185" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.2">
@@ -5633,7 +5633,7 @@
         <v>0</v>
       </c>
       <c r="I186" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.2">
@@ -5659,7 +5659,7 @@
         <v>0</v>
       </c>
       <c r="I187" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.2">
@@ -5685,7 +5685,7 @@
         <v>0</v>
       </c>
       <c r="I188" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.2">
@@ -5711,7 +5711,7 @@
         <v>0</v>
       </c>
       <c r="I189" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.2">
@@ -5737,7 +5737,7 @@
         <v>0</v>
       </c>
       <c r="I190" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.2">
@@ -5763,7 +5763,7 @@
         <v>0</v>
       </c>
       <c r="I191" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.2">
@@ -5789,7 +5789,7 @@
         <v>0</v>
       </c>
       <c r="I192" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.2">
@@ -5815,7 +5815,7 @@
         <v>0</v>
       </c>
       <c r="I193" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.2">
@@ -5841,7 +5841,7 @@
         <v>0</v>
       </c>
       <c r="I194" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.2">
@@ -5867,7 +5867,7 @@
         <v>0</v>
       </c>
       <c r="I195" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.2">
@@ -5893,7 +5893,7 @@
         <v>0</v>
       </c>
       <c r="I196" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.2">
@@ -5919,7 +5919,7 @@
         <v>0</v>
       </c>
       <c r="I197" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.2">
@@ -5945,7 +5945,7 @@
         <v>0</v>
       </c>
       <c r="I198" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.2">
@@ -5971,7 +5971,7 @@
         <v>0</v>
       </c>
       <c r="I199" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.2">
@@ -5997,7 +5997,7 @@
         <v>0</v>
       </c>
       <c r="I200" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.2">
@@ -6023,7 +6023,7 @@
         <v>0</v>
       </c>
       <c r="I201" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.2">
@@ -6049,7 +6049,7 @@
         <v>0</v>
       </c>
       <c r="I202" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.2">
@@ -6075,7 +6075,7 @@
         <v>0</v>
       </c>
       <c r="I203" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.2">
@@ -6101,7 +6101,7 @@
         <v>0</v>
       </c>
       <c r="I204" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.2">
@@ -6127,7 +6127,7 @@
         <v>0</v>
       </c>
       <c r="I205" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.2">
@@ -6153,7 +6153,7 @@
         <v>0</v>
       </c>
       <c r="I206" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.2">
@@ -6179,7 +6179,7 @@
         <v>0</v>
       </c>
       <c r="I207" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.2">
@@ -6205,7 +6205,7 @@
         <v>0</v>
       </c>
       <c r="I208" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.2">
@@ -6231,7 +6231,7 @@
         <v>0</v>
       </c>
       <c r="I209" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.2">
@@ -6257,7 +6257,7 @@
         <v>0</v>
       </c>
       <c r="I210" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.2">
@@ -6283,7 +6283,7 @@
         <v>0</v>
       </c>
       <c r="I211" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.2">
@@ -6309,7 +6309,7 @@
         <v>0</v>
       </c>
       <c r="I212" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.2">
@@ -6335,7 +6335,7 @@
         <v>0</v>
       </c>
       <c r="I213" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.2">
@@ -6361,7 +6361,7 @@
         <v>0</v>
       </c>
       <c r="I214" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.2">
@@ -6387,7 +6387,7 @@
         <v>0</v>
       </c>
       <c r="I215" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.2">
@@ -6413,7 +6413,7 @@
         <v>0</v>
       </c>
       <c r="I216" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.2">
@@ -6439,7 +6439,7 @@
         <v>0</v>
       </c>
       <c r="I217" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.2">
@@ -6465,7 +6465,7 @@
         <v>0</v>
       </c>
       <c r="I218" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.2">
@@ -6491,7 +6491,7 @@
         <v>0</v>
       </c>
       <c r="I219" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.2">
@@ -6517,7 +6517,7 @@
         <v>0</v>
       </c>
       <c r="I220" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.2">
@@ -6543,7 +6543,7 @@
         <v>0</v>
       </c>
       <c r="I221" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.2">
@@ -6569,7 +6569,7 @@
         <v>0</v>
       </c>
       <c r="I222" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.2">
@@ -6595,7 +6595,7 @@
         <v>0</v>
       </c>
       <c r="I223" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.2">
@@ -6621,7 +6621,7 @@
         <v>0</v>
       </c>
       <c r="I224" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.2">
@@ -6647,7 +6647,7 @@
         <v>0</v>
       </c>
       <c r="I225" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.2">
@@ -6673,7 +6673,7 @@
         <v>0</v>
       </c>
       <c r="I226" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="227" spans="1:9" x14ac:dyDescent="0.2">
@@ -6699,7 +6699,7 @@
         <v>0</v>
       </c>
       <c r="I227" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.2">
@@ -6725,7 +6725,7 @@
         <v>0</v>
       </c>
       <c r="I228" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.2">
@@ -6751,7 +6751,7 @@
         <v>0</v>
       </c>
       <c r="I229" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="230" spans="1:9" x14ac:dyDescent="0.2">
@@ -6777,7 +6777,7 @@
         <v>0</v>
       </c>
       <c r="I230" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="231" spans="1:9" x14ac:dyDescent="0.2">
@@ -6803,7 +6803,7 @@
         <v>0</v>
       </c>
       <c r="I231" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="232" spans="1:9" x14ac:dyDescent="0.2">
@@ -6829,7 +6829,7 @@
         <v>0</v>
       </c>
       <c r="I232" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="233" spans="1:9" x14ac:dyDescent="0.2">
@@ -6855,7 +6855,7 @@
         <v>0</v>
       </c>
       <c r="I233" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="234" spans="1:9" x14ac:dyDescent="0.2">
@@ -6881,7 +6881,7 @@
         <v>0</v>
       </c>
       <c r="I234" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="235" spans="1:9" x14ac:dyDescent="0.2">
@@ -6907,7 +6907,7 @@
         <v>0</v>
       </c>
       <c r="I235" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="236" spans="1:9" x14ac:dyDescent="0.2">
@@ -6933,7 +6933,7 @@
         <v>0</v>
       </c>
       <c r="I236" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="237" spans="1:9" x14ac:dyDescent="0.2">
@@ -6959,7 +6959,7 @@
         <v>0</v>
       </c>
       <c r="I237" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="238" spans="1:9" x14ac:dyDescent="0.2">
@@ -6985,7 +6985,7 @@
         <v>0</v>
       </c>
       <c r="I238" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="239" spans="1:9" x14ac:dyDescent="0.2">
@@ -7011,7 +7011,7 @@
         <v>0</v>
       </c>
       <c r="I239" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="240" spans="1:9" x14ac:dyDescent="0.2">
@@ -7037,7 +7037,7 @@
         <v>0</v>
       </c>
       <c r="I240" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="241" spans="1:9" x14ac:dyDescent="0.2">
@@ -7063,7 +7063,7 @@
         <v>0</v>
       </c>
       <c r="I241" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="242" spans="1:9" x14ac:dyDescent="0.2">
@@ -7089,7 +7089,7 @@
         <v>0</v>
       </c>
       <c r="I242" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="243" spans="1:9" x14ac:dyDescent="0.2">
@@ -7115,7 +7115,7 @@
         <v>0</v>
       </c>
       <c r="I243" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="244" spans="1:9" x14ac:dyDescent="0.2">
@@ -7141,7 +7141,7 @@
         <v>0</v>
       </c>
       <c r="I244" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="245" spans="1:9" x14ac:dyDescent="0.2">
@@ -7167,7 +7167,7 @@
         <v>0</v>
       </c>
       <c r="I245" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="246" spans="1:9" x14ac:dyDescent="0.2">
@@ -7193,7 +7193,7 @@
         <v>0</v>
       </c>
       <c r="I246" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="247" spans="1:9" x14ac:dyDescent="0.2">
@@ -7219,7 +7219,7 @@
         <v>0</v>
       </c>
       <c r="I247" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="248" spans="1:9" x14ac:dyDescent="0.2">
@@ -7245,7 +7245,7 @@
         <v>0</v>
       </c>
       <c r="I248" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="249" spans="1:9" x14ac:dyDescent="0.2">
@@ -7271,7 +7271,7 @@
         <v>0</v>
       </c>
       <c r="I249" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="250" spans="1:9" x14ac:dyDescent="0.2">
@@ -7297,7 +7297,7 @@
         <v>0</v>
       </c>
       <c r="I250" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="251" spans="1:9" x14ac:dyDescent="0.2">
@@ -7323,7 +7323,7 @@
         <v>0</v>
       </c>
       <c r="I251" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="252" spans="1:9" x14ac:dyDescent="0.2">
@@ -7349,7 +7349,7 @@
         <v>0</v>
       </c>
       <c r="I252" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="253" spans="1:9" x14ac:dyDescent="0.2">
@@ -7375,7 +7375,7 @@
         <v>0</v>
       </c>
       <c r="I253" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="254" spans="1:9" x14ac:dyDescent="0.2">
@@ -7401,7 +7401,7 @@
         <v>0</v>
       </c>
       <c r="I254" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="255" spans="1:9" x14ac:dyDescent="0.2">
@@ -7427,7 +7427,7 @@
         <v>0</v>
       </c>
       <c r="I255" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="256" spans="1:9" x14ac:dyDescent="0.2">
@@ -7453,7 +7453,7 @@
         <v>0</v>
       </c>
       <c r="I256" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="257" spans="1:9" x14ac:dyDescent="0.2">
@@ -7479,7 +7479,7 @@
         <v>0</v>
       </c>
       <c r="I257" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="258" spans="1:9" x14ac:dyDescent="0.2">
@@ -7505,7 +7505,7 @@
         <v>0</v>
       </c>
       <c r="I258" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="259" spans="1:9" x14ac:dyDescent="0.2">
@@ -7531,7 +7531,7 @@
         <v>0</v>
       </c>
       <c r="I259" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="260" spans="1:9" x14ac:dyDescent="0.2">
@@ -7557,7 +7557,7 @@
         <v>0</v>
       </c>
       <c r="I260" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="261" spans="1:9" x14ac:dyDescent="0.2">
@@ -7583,7 +7583,7 @@
         <v>0</v>
       </c>
       <c r="I261" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="262" spans="1:9" x14ac:dyDescent="0.2">
@@ -7609,7 +7609,7 @@
         <v>0</v>
       </c>
       <c r="I262" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="263" spans="1:9" x14ac:dyDescent="0.2">
@@ -7635,7 +7635,7 @@
         <v>0</v>
       </c>
       <c r="I263" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="264" spans="1:9" x14ac:dyDescent="0.2">
@@ -7661,7 +7661,7 @@
         <v>0</v>
       </c>
       <c r="I264" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="265" spans="1:9" x14ac:dyDescent="0.2">
@@ -7687,7 +7687,7 @@
         <v>0</v>
       </c>
       <c r="I265" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="266" spans="1:9" x14ac:dyDescent="0.2">
@@ -7713,7 +7713,7 @@
         <v>0</v>
       </c>
       <c r="I266" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="267" spans="1:9" x14ac:dyDescent="0.2">
@@ -7739,7 +7739,7 @@
         <v>0</v>
       </c>
       <c r="I267" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="268" spans="1:9" x14ac:dyDescent="0.2">
@@ -7765,7 +7765,7 @@
         <v>0</v>
       </c>
       <c r="I268" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="269" spans="1:9" x14ac:dyDescent="0.2">
@@ -7791,7 +7791,7 @@
         <v>0</v>
       </c>
       <c r="I269" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="270" spans="1:9" x14ac:dyDescent="0.2">
@@ -7817,7 +7817,7 @@
         <v>0</v>
       </c>
       <c r="I270" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="271" spans="1:9" x14ac:dyDescent="0.2">
@@ -7843,7 +7843,7 @@
         <v>0</v>
       </c>
       <c r="I271" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="272" spans="1:9" x14ac:dyDescent="0.2">
@@ -7869,7 +7869,7 @@
         <v>0</v>
       </c>
       <c r="I272" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="273" spans="1:9" x14ac:dyDescent="0.2">
@@ -7895,7 +7895,7 @@
         <v>0</v>
       </c>
       <c r="I273" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="274" spans="1:9" x14ac:dyDescent="0.2">
@@ -7921,7 +7921,7 @@
         <v>0</v>
       </c>
       <c r="I274" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="275" spans="1:9" x14ac:dyDescent="0.2">
@@ -7947,7 +7947,7 @@
         <v>0</v>
       </c>
       <c r="I275" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="276" spans="1:9" x14ac:dyDescent="0.2">
@@ -7973,7 +7973,7 @@
         <v>0</v>
       </c>
       <c r="I276" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="277" spans="1:9" x14ac:dyDescent="0.2">
@@ -7999,7 +7999,7 @@
         <v>0</v>
       </c>
       <c r="I277" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="278" spans="1:9" x14ac:dyDescent="0.2">
@@ -8025,7 +8025,7 @@
         <v>0</v>
       </c>
       <c r="I278" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="279" spans="1:9" x14ac:dyDescent="0.2">
@@ -8051,7 +8051,7 @@
         <v>0</v>
       </c>
       <c r="I279" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="280" spans="1:9" x14ac:dyDescent="0.2">
@@ -8077,7 +8077,7 @@
         <v>0</v>
       </c>
       <c r="I280" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="281" spans="1:9" x14ac:dyDescent="0.2">
@@ -8103,7 +8103,7 @@
         <v>0</v>
       </c>
       <c r="I281" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="282" spans="1:9" x14ac:dyDescent="0.2">
@@ -8129,7 +8129,7 @@
         <v>0</v>
       </c>
       <c r="I282" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="283" spans="1:9" x14ac:dyDescent="0.2">
@@ -8155,7 +8155,7 @@
         <v>0</v>
       </c>
       <c r="I283" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="284" spans="1:9" x14ac:dyDescent="0.2">
@@ -8181,7 +8181,7 @@
         <v>0</v>
       </c>
       <c r="I284" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="285" spans="1:9" x14ac:dyDescent="0.2">
@@ -8207,7 +8207,7 @@
         <v>0</v>
       </c>
       <c r="I285" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="286" spans="1:9" x14ac:dyDescent="0.2">
@@ -8233,7 +8233,7 @@
         <v>0</v>
       </c>
       <c r="I286" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="287" spans="1:9" x14ac:dyDescent="0.2">
@@ -8259,7 +8259,7 @@
         <v>0</v>
       </c>
       <c r="I287" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="288" spans="1:9" x14ac:dyDescent="0.2">
@@ -8285,7 +8285,7 @@
         <v>0</v>
       </c>
       <c r="I288" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="289" spans="1:9" x14ac:dyDescent="0.2">
@@ -8311,7 +8311,7 @@
         <v>0</v>
       </c>
       <c r="I289" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="290" spans="1:9" x14ac:dyDescent="0.2">
@@ -8337,7 +8337,7 @@
         <v>0</v>
       </c>
       <c r="I290" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="291" spans="1:9" x14ac:dyDescent="0.2">
@@ -8363,7 +8363,7 @@
         <v>0</v>
       </c>
       <c r="I291" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="292" spans="1:9" x14ac:dyDescent="0.2">
@@ -8389,7 +8389,7 @@
         <v>0</v>
       </c>
       <c r="I292" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="293" spans="1:9" x14ac:dyDescent="0.2">
@@ -8415,7 +8415,7 @@
         <v>0</v>
       </c>
       <c r="I293" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="294" spans="1:9" x14ac:dyDescent="0.2">
@@ -8441,7 +8441,7 @@
         <v>0</v>
       </c>
       <c r="I294" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="295" spans="1:9" x14ac:dyDescent="0.2">
@@ -8467,7 +8467,7 @@
         <v>0</v>
       </c>
       <c r="I295" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="296" spans="1:9" x14ac:dyDescent="0.2">
@@ -8493,7 +8493,7 @@
         <v>0</v>
       </c>
       <c r="I296" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="297" spans="1:9" x14ac:dyDescent="0.2">
@@ -8519,7 +8519,7 @@
         <v>0</v>
       </c>
       <c r="I297" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="298" spans="1:9" x14ac:dyDescent="0.2">
@@ -8545,7 +8545,7 @@
         <v>0</v>
       </c>
       <c r="I298" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="299" spans="1:9" x14ac:dyDescent="0.2">
@@ -8571,7 +8571,7 @@
         <v>0</v>
       </c>
       <c r="I299" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="300" spans="1:9" x14ac:dyDescent="0.2">
@@ -8597,7 +8597,7 @@
         <v>0</v>
       </c>
       <c r="I300" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="301" spans="1:9" x14ac:dyDescent="0.2">
@@ -8623,7 +8623,7 @@
         <v>0</v>
       </c>
       <c r="I301" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="302" spans="1:9" x14ac:dyDescent="0.2">
@@ -8649,7 +8649,7 @@
         <v>0</v>
       </c>
       <c r="I302" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="303" spans="1:9" x14ac:dyDescent="0.2">
@@ -8675,7 +8675,7 @@
         <v>0</v>
       </c>
       <c r="I303" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="304" spans="1:9" x14ac:dyDescent="0.2">
@@ -8701,7 +8701,7 @@
         <v>0</v>
       </c>
       <c r="I304" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="305" spans="1:9" x14ac:dyDescent="0.2">
@@ -8727,7 +8727,7 @@
         <v>0</v>
       </c>
       <c r="I305" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="306" spans="1:9" x14ac:dyDescent="0.2">
@@ -8753,7 +8753,7 @@
         <v>0</v>
       </c>
       <c r="I306" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="307" spans="1:9" x14ac:dyDescent="0.2">
@@ -8779,7 +8779,7 @@
         <v>0</v>
       </c>
       <c r="I307" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="308" spans="1:9" x14ac:dyDescent="0.2">
@@ -8805,7 +8805,7 @@
         <v>0</v>
       </c>
       <c r="I308" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="309" spans="1:9" x14ac:dyDescent="0.2">
@@ -8831,7 +8831,7 @@
         <v>0</v>
       </c>
       <c r="I309" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="310" spans="1:9" x14ac:dyDescent="0.2">
@@ -8857,7 +8857,7 @@
         <v>0</v>
       </c>
       <c r="I310" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="311" spans="1:9" x14ac:dyDescent="0.2">
@@ -8883,7 +8883,7 @@
         <v>0</v>
       </c>
       <c r="I311" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="312" spans="1:9" x14ac:dyDescent="0.2">
@@ -8909,7 +8909,7 @@
         <v>0</v>
       </c>
       <c r="I312" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="313" spans="1:9" x14ac:dyDescent="0.2">
@@ -8935,7 +8935,7 @@
         <v>0</v>
       </c>
       <c r="I313" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="314" spans="1:9" x14ac:dyDescent="0.2">
@@ -8961,7 +8961,7 @@
         <v>0</v>
       </c>
       <c r="I314" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="315" spans="1:9" x14ac:dyDescent="0.2">
@@ -8987,7 +8987,7 @@
         <v>0</v>
       </c>
       <c r="I315" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="316" spans="1:9" x14ac:dyDescent="0.2">
@@ -9013,7 +9013,7 @@
         <v>0</v>
       </c>
       <c r="I316" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="317" spans="1:9" x14ac:dyDescent="0.2">
@@ -9039,7 +9039,7 @@
         <v>0</v>
       </c>
       <c r="I317" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="318" spans="1:9" x14ac:dyDescent="0.2">
@@ -9065,7 +9065,7 @@
         <v>0</v>
       </c>
       <c r="I318" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="319" spans="1:9" x14ac:dyDescent="0.2">
@@ -9091,7 +9091,7 @@
         <v>0</v>
       </c>
       <c r="I319" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="320" spans="1:9" x14ac:dyDescent="0.2">
@@ -9117,7 +9117,7 @@
         <v>0</v>
       </c>
       <c r="I320" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="321" spans="1:9" x14ac:dyDescent="0.2">
@@ -9143,7 +9143,7 @@
         <v>0</v>
       </c>
       <c r="I321" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="322" spans="1:9" x14ac:dyDescent="0.2">
@@ -9169,7 +9169,7 @@
         <v>0</v>
       </c>
       <c r="I322" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="323" spans="1:9" x14ac:dyDescent="0.2">
@@ -9195,7 +9195,7 @@
         <v>0</v>
       </c>
       <c r="I323" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="324" spans="1:9" x14ac:dyDescent="0.2">
@@ -9221,7 +9221,7 @@
         <v>0</v>
       </c>
       <c r="I324" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="325" spans="1:9" x14ac:dyDescent="0.2">
@@ -9247,7 +9247,7 @@
         <v>0</v>
       </c>
       <c r="I325" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="326" spans="1:9" x14ac:dyDescent="0.2">
@@ -9273,7 +9273,7 @@
         <v>0</v>
       </c>
       <c r="I326" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="327" spans="1:9" x14ac:dyDescent="0.2">
@@ -9299,7 +9299,7 @@
         <v>0</v>
       </c>
       <c r="I327" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="328" spans="1:9" x14ac:dyDescent="0.2">
@@ -9325,7 +9325,7 @@
         <v>0</v>
       </c>
       <c r="I328" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="329" spans="1:9" x14ac:dyDescent="0.2">
@@ -9351,7 +9351,7 @@
         <v>0</v>
       </c>
       <c r="I329" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="330" spans="1:9" x14ac:dyDescent="0.2">
@@ -9377,7 +9377,7 @@
         <v>0</v>
       </c>
       <c r="I330" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="331" spans="1:9" x14ac:dyDescent="0.2">
@@ -9403,7 +9403,7 @@
         <v>0</v>
       </c>
       <c r="I331" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="332" spans="1:9" x14ac:dyDescent="0.2">
@@ -9429,7 +9429,7 @@
         <v>0</v>
       </c>
       <c r="I332" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="333" spans="1:9" x14ac:dyDescent="0.2">
@@ -9455,7 +9455,7 @@
         <v>0</v>
       </c>
       <c r="I333" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="334" spans="1:9" x14ac:dyDescent="0.2">
@@ -9481,7 +9481,7 @@
         <v>0</v>
       </c>
       <c r="I334" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="335" spans="1:9" x14ac:dyDescent="0.2">
@@ -9507,7 +9507,7 @@
         <v>0</v>
       </c>
       <c r="I335" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="336" spans="1:9" x14ac:dyDescent="0.2">
@@ -9533,7 +9533,7 @@
         <v>0</v>
       </c>
       <c r="I336" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="337" spans="1:9" x14ac:dyDescent="0.2">
@@ -9559,7 +9559,7 @@
         <v>0</v>
       </c>
       <c r="I337" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="338" spans="1:9" x14ac:dyDescent="0.2">
@@ -9585,7 +9585,7 @@
         <v>0</v>
       </c>
       <c r="I338" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="339" spans="1:9" x14ac:dyDescent="0.2">
@@ -9611,7 +9611,7 @@
         <v>0</v>
       </c>
       <c r="I339" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="340" spans="1:9" x14ac:dyDescent="0.2">
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="I340" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="341" spans="1:9" x14ac:dyDescent="0.2">
@@ -9663,7 +9663,7 @@
         <v>0</v>
       </c>
       <c r="I341" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="342" spans="1:9" x14ac:dyDescent="0.2">
@@ -9689,7 +9689,7 @@
         <v>0</v>
       </c>
       <c r="I342" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="343" spans="1:9" x14ac:dyDescent="0.2">
@@ -9715,7 +9715,7 @@
         <v>0</v>
       </c>
       <c r="I343" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="344" spans="1:9" x14ac:dyDescent="0.2">
@@ -9741,7 +9741,7 @@
         <v>0</v>
       </c>
       <c r="I344" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="345" spans="1:9" x14ac:dyDescent="0.2">
@@ -9767,7 +9767,7 @@
         <v>0</v>
       </c>
       <c r="I345" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="346" spans="1:9" x14ac:dyDescent="0.2">
@@ -9793,7 +9793,7 @@
         <v>0</v>
       </c>
       <c r="I346" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="347" spans="1:9" x14ac:dyDescent="0.2">
@@ -9819,7 +9819,7 @@
         <v>0</v>
       </c>
       <c r="I347" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="348" spans="1:9" x14ac:dyDescent="0.2">
@@ -9845,7 +9845,7 @@
         <v>0</v>
       </c>
       <c r="I348" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="349" spans="1:9" x14ac:dyDescent="0.2">
@@ -9871,7 +9871,7 @@
         <v>0</v>
       </c>
       <c r="I349" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="350" spans="1:9" x14ac:dyDescent="0.2">
@@ -9897,7 +9897,7 @@
         <v>0</v>
       </c>
       <c r="I350" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="351" spans="1:9" x14ac:dyDescent="0.2">
@@ -9923,7 +9923,7 @@
         <v>0</v>
       </c>
       <c r="I351" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="352" spans="1:9" x14ac:dyDescent="0.2">
@@ -9949,7 +9949,7 @@
         <v>0</v>
       </c>
       <c r="I352" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="353" spans="1:9" x14ac:dyDescent="0.2">
@@ -9975,7 +9975,7 @@
         <v>0</v>
       </c>
       <c r="I353" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="354" spans="1:9" x14ac:dyDescent="0.2">
@@ -10001,7 +10001,7 @@
         <v>0</v>
       </c>
       <c r="I354" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="355" spans="1:9" x14ac:dyDescent="0.2">
@@ -10027,7 +10027,7 @@
         <v>0</v>
       </c>
       <c r="I355" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="356" spans="1:9" x14ac:dyDescent="0.2">
@@ -10053,7 +10053,7 @@
         <v>0</v>
       </c>
       <c r="I356" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="357" spans="1:9" x14ac:dyDescent="0.2">
@@ -10079,7 +10079,7 @@
         <v>0</v>
       </c>
       <c r="I357" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="358" spans="1:9" x14ac:dyDescent="0.2">
@@ -10105,7 +10105,7 @@
         <v>0</v>
       </c>
       <c r="I358" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="359" spans="1:9" x14ac:dyDescent="0.2">
@@ -10131,7 +10131,7 @@
         <v>0</v>
       </c>
       <c r="I359" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="360" spans="1:9" x14ac:dyDescent="0.2">
@@ -10157,7 +10157,7 @@
         <v>0</v>
       </c>
       <c r="I360" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="361" spans="1:9" x14ac:dyDescent="0.2">
@@ -10183,7 +10183,7 @@
         <v>0</v>
       </c>
       <c r="I361" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="362" spans="1:9" x14ac:dyDescent="0.2">
@@ -10209,7 +10209,7 @@
         <v>0</v>
       </c>
       <c r="I362" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="363" spans="1:9" x14ac:dyDescent="0.2">
@@ -10235,7 +10235,7 @@
         <v>0</v>
       </c>
       <c r="I363" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="364" spans="1:9" x14ac:dyDescent="0.2">
@@ -10261,7 +10261,7 @@
         <v>0</v>
       </c>
       <c r="I364" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="365" spans="1:9" x14ac:dyDescent="0.2">
@@ -10287,7 +10287,7 @@
         <v>0</v>
       </c>
       <c r="I365" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="366" spans="1:9" x14ac:dyDescent="0.2">
@@ -10313,7 +10313,7 @@
         <v>0</v>
       </c>
       <c r="I366" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="367" spans="1:9" x14ac:dyDescent="0.2">
@@ -10339,7 +10339,7 @@
         <v>0</v>
       </c>
       <c r="I367" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="368" spans="1:9" x14ac:dyDescent="0.2">
@@ -10365,7 +10365,7 @@
         <v>0</v>
       </c>
       <c r="I368" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="369" spans="1:9" x14ac:dyDescent="0.2">
@@ -10391,7 +10391,7 @@
         <v>0</v>
       </c>
       <c r="I369" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="370" spans="1:9" x14ac:dyDescent="0.2">
@@ -10417,7 +10417,7 @@
         <v>0</v>
       </c>
       <c r="I370" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="371" spans="1:9" x14ac:dyDescent="0.2">
@@ -10443,7 +10443,7 @@
         <v>0</v>
       </c>
       <c r="I371" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="372" spans="1:9" x14ac:dyDescent="0.2">
@@ -10469,7 +10469,7 @@
         <v>0</v>
       </c>
       <c r="I372" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="373" spans="1:9" x14ac:dyDescent="0.2">
@@ -10495,7 +10495,7 @@
         <v>0</v>
       </c>
       <c r="I373" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="374" spans="1:9" x14ac:dyDescent="0.2">
@@ -10521,7 +10521,7 @@
         <v>0</v>
       </c>
       <c r="I374" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="375" spans="1:9" x14ac:dyDescent="0.2">
@@ -10547,7 +10547,7 @@
         <v>0</v>
       </c>
       <c r="I375" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="376" spans="1:9" x14ac:dyDescent="0.2">
@@ -10573,7 +10573,7 @@
         <v>0</v>
       </c>
       <c r="I376" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="377" spans="1:9" x14ac:dyDescent="0.2">
@@ -10599,7 +10599,7 @@
         <v>0</v>
       </c>
       <c r="I377" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="378" spans="1:9" x14ac:dyDescent="0.2">
@@ -10625,7 +10625,7 @@
         <v>0</v>
       </c>
       <c r="I378" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="379" spans="1:9" x14ac:dyDescent="0.2">
@@ -10651,7 +10651,7 @@
         <v>0</v>
       </c>
       <c r="I379" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="380" spans="1:9" x14ac:dyDescent="0.2">
@@ -10677,7 +10677,7 @@
         <v>0</v>
       </c>
       <c r="I380" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="381" spans="1:9" x14ac:dyDescent="0.2">
@@ -10703,7 +10703,7 @@
         <v>0</v>
       </c>
       <c r="I381" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="382" spans="1:9" x14ac:dyDescent="0.2">
@@ -10729,7 +10729,7 @@
         <v>0</v>
       </c>
       <c r="I382" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="383" spans="1:9" x14ac:dyDescent="0.2">
@@ -10755,7 +10755,7 @@
         <v>0</v>
       </c>
       <c r="I383" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="384" spans="1:9" x14ac:dyDescent="0.2">
@@ -10781,7 +10781,7 @@
         <v>0</v>
       </c>
       <c r="I384" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="385" spans="1:9" x14ac:dyDescent="0.2">
@@ -10807,7 +10807,7 @@
         <v>0</v>
       </c>
       <c r="I385" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="386" spans="1:9" x14ac:dyDescent="0.2">
@@ -10833,7 +10833,7 @@
         <v>0</v>
       </c>
       <c r="I386" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="387" spans="1:9" x14ac:dyDescent="0.2">
@@ -10859,7 +10859,7 @@
         <v>0</v>
       </c>
       <c r="I387" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="388" spans="1:9" x14ac:dyDescent="0.2">
@@ -10885,7 +10885,7 @@
         <v>0</v>
       </c>
       <c r="I388" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="389" spans="1:9" x14ac:dyDescent="0.2">
@@ -10911,7 +10911,7 @@
         <v>0</v>
       </c>
       <c r="I389" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="390" spans="1:9" x14ac:dyDescent="0.2">
@@ -10937,7 +10937,7 @@
         <v>0</v>
       </c>
       <c r="I390" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="391" spans="1:9" x14ac:dyDescent="0.2">
@@ -10963,7 +10963,7 @@
         <v>0</v>
       </c>
       <c r="I391" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="392" spans="1:9" x14ac:dyDescent="0.2">
@@ -10989,7 +10989,7 @@
         <v>0</v>
       </c>
       <c r="I392" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="393" spans="1:9" x14ac:dyDescent="0.2">
@@ -11015,7 +11015,7 @@
         <v>0</v>
       </c>
       <c r="I393" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="394" spans="1:9" x14ac:dyDescent="0.2">
@@ -11041,7 +11041,7 @@
         <v>0</v>
       </c>
       <c r="I394" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="395" spans="1:9" x14ac:dyDescent="0.2">
@@ -11067,7 +11067,7 @@
         <v>0</v>
       </c>
       <c r="I395" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="396" spans="1:9" x14ac:dyDescent="0.2">
@@ -11093,7 +11093,7 @@
         <v>0</v>
       </c>
       <c r="I396" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="397" spans="1:9" x14ac:dyDescent="0.2">
@@ -11119,7 +11119,7 @@
         <v>0</v>
       </c>
       <c r="I397" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="398" spans="1:9" x14ac:dyDescent="0.2">
@@ -11145,7 +11145,7 @@
         <v>0</v>
       </c>
       <c r="I398" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="399" spans="1:9" x14ac:dyDescent="0.2">
@@ -11171,7 +11171,7 @@
         <v>0</v>
       </c>
       <c r="I399" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="400" spans="1:9" x14ac:dyDescent="0.2">
@@ -11197,7 +11197,7 @@
         <v>0</v>
       </c>
       <c r="I400" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="401" spans="1:9" x14ac:dyDescent="0.2">
@@ -11223,7 +11223,7 @@
         <v>0</v>
       </c>
       <c r="I401" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="402" spans="1:9" x14ac:dyDescent="0.2">
@@ -11249,7 +11249,7 @@
         <v>0</v>
       </c>
       <c r="I402" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="403" spans="1:9" x14ac:dyDescent="0.2">
@@ -11275,7 +11275,7 @@
         <v>0</v>
       </c>
       <c r="I403" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="404" spans="1:9" x14ac:dyDescent="0.2">
@@ -11301,7 +11301,7 @@
         <v>0</v>
       </c>
       <c r="I404" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="405" spans="1:9" x14ac:dyDescent="0.2">
@@ -11327,7 +11327,7 @@
         <v>0</v>
       </c>
       <c r="I405" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="406" spans="1:9" x14ac:dyDescent="0.2">
@@ -11353,7 +11353,7 @@
         <v>0</v>
       </c>
       <c r="I406" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="407" spans="1:9" x14ac:dyDescent="0.2">
@@ -11379,7 +11379,7 @@
         <v>0</v>
       </c>
       <c r="I407" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="408" spans="1:9" x14ac:dyDescent="0.2">
@@ -11405,7 +11405,7 @@
         <v>0</v>
       </c>
       <c r="I408" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="409" spans="1:9" x14ac:dyDescent="0.2">
@@ -11431,7 +11431,7 @@
         <v>0</v>
       </c>
       <c r="I409" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="410" spans="1:9" x14ac:dyDescent="0.2">
@@ -11457,7 +11457,7 @@
         <v>0</v>
       </c>
       <c r="I410" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="411" spans="1:9" x14ac:dyDescent="0.2">
@@ -11483,7 +11483,7 @@
         <v>0</v>
       </c>
       <c r="I411" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="412" spans="1:9" x14ac:dyDescent="0.2">
@@ -11509,7 +11509,7 @@
         <v>0</v>
       </c>
       <c r="I412" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="413" spans="1:9" x14ac:dyDescent="0.2">
@@ -11535,7 +11535,7 @@
         <v>0</v>
       </c>
       <c r="I413" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="414" spans="1:9" x14ac:dyDescent="0.2">
@@ -11561,7 +11561,7 @@
         <v>0</v>
       </c>
       <c r="I414" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="415" spans="1:9" x14ac:dyDescent="0.2">
@@ -11587,7 +11587,7 @@
         <v>0</v>
       </c>
       <c r="I415" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="416" spans="1:9" x14ac:dyDescent="0.2">
@@ -11613,7 +11613,7 @@
         <v>0</v>
       </c>
       <c r="I416" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="417" spans="1:9" x14ac:dyDescent="0.2">
@@ -11639,7 +11639,7 @@
         <v>0</v>
       </c>
       <c r="I417" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="418" spans="1:9" x14ac:dyDescent="0.2">
@@ -11665,7 +11665,7 @@
         <v>0</v>
       </c>
       <c r="I418" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="419" spans="1:9" x14ac:dyDescent="0.2">
@@ -11691,7 +11691,7 @@
         <v>0</v>
       </c>
       <c r="I419" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="420" spans="1:9" x14ac:dyDescent="0.2">
@@ -11717,7 +11717,7 @@
         <v>0</v>
       </c>
       <c r="I420" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="421" spans="1:9" x14ac:dyDescent="0.2">
@@ -11743,7 +11743,7 @@
         <v>0</v>
       </c>
       <c r="I421" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="422" spans="1:9" x14ac:dyDescent="0.2">
@@ -11769,7 +11769,7 @@
         <v>0</v>
       </c>
       <c r="I422" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="423" spans="1:9" x14ac:dyDescent="0.2">
@@ -11795,7 +11795,7 @@
         <v>0</v>
       </c>
       <c r="I423" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="424" spans="1:9" x14ac:dyDescent="0.2">
@@ -11821,7 +11821,7 @@
         <v>0</v>
       </c>
       <c r="I424" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="425" spans="1:9" x14ac:dyDescent="0.2">
@@ -11847,7 +11847,7 @@
         <v>0</v>
       </c>
       <c r="I425" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="426" spans="1:9" x14ac:dyDescent="0.2">
@@ -11873,7 +11873,7 @@
         <v>0</v>
       </c>
       <c r="I426" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="427" spans="1:9" x14ac:dyDescent="0.2">
@@ -11899,7 +11899,7 @@
         <v>0</v>
       </c>
       <c r="I427" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="428" spans="1:9" x14ac:dyDescent="0.2">
@@ -11925,7 +11925,7 @@
         <v>0</v>
       </c>
       <c r="I428" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="429" spans="1:9" x14ac:dyDescent="0.2">
@@ -11951,7 +11951,7 @@
         <v>0</v>
       </c>
       <c r="I429" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="430" spans="1:9" x14ac:dyDescent="0.2">
@@ -11977,7 +11977,7 @@
         <v>0</v>
       </c>
       <c r="I430" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="431" spans="1:9" x14ac:dyDescent="0.2">
@@ -12003,7 +12003,7 @@
         <v>0</v>
       </c>
       <c r="I431" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="432" spans="1:9" x14ac:dyDescent="0.2">
@@ -12029,7 +12029,7 @@
         <v>0</v>
       </c>
       <c r="I432" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="433" spans="1:9" x14ac:dyDescent="0.2">
@@ -12055,7 +12055,7 @@
         <v>0</v>
       </c>
       <c r="I433" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="434" spans="1:9" x14ac:dyDescent="0.2">
@@ -12081,7 +12081,7 @@
         <v>0</v>
       </c>
       <c r="I434" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="435" spans="1:9" x14ac:dyDescent="0.2">
@@ -12107,7 +12107,7 @@
         <v>0</v>
       </c>
       <c r="I435" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="436" spans="1:9" x14ac:dyDescent="0.2">
@@ -12133,7 +12133,7 @@
         <v>0</v>
       </c>
       <c r="I436" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="437" spans="1:9" x14ac:dyDescent="0.2">
@@ -12159,7 +12159,7 @@
         <v>0</v>
       </c>
       <c r="I437" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="438" spans="1:9" x14ac:dyDescent="0.2">
@@ -12185,7 +12185,7 @@
         <v>0</v>
       </c>
       <c r="I438" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="439" spans="1:9" x14ac:dyDescent="0.2">
@@ -12211,7 +12211,7 @@
         <v>0</v>
       </c>
       <c r="I439" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="440" spans="1:9" x14ac:dyDescent="0.2">
@@ -12237,7 +12237,7 @@
         <v>0</v>
       </c>
       <c r="I440" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="441" spans="1:9" x14ac:dyDescent="0.2">
@@ -12263,7 +12263,7 @@
         <v>0</v>
       </c>
       <c r="I441" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="442" spans="1:9" x14ac:dyDescent="0.2">
@@ -12289,7 +12289,7 @@
         <v>0</v>
       </c>
       <c r="I442" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="443" spans="1:9" x14ac:dyDescent="0.2">
@@ -12315,7 +12315,7 @@
         <v>0</v>
       </c>
       <c r="I443" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="444" spans="1:9" x14ac:dyDescent="0.2">
@@ -12341,7 +12341,7 @@
         <v>0</v>
       </c>
       <c r="I444" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="445" spans="1:9" x14ac:dyDescent="0.2">
@@ -12367,7 +12367,7 @@
         <v>0</v>
       </c>
       <c r="I445" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="446" spans="1:9" x14ac:dyDescent="0.2">
@@ -12393,7 +12393,7 @@
         <v>0</v>
       </c>
       <c r="I446" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="447" spans="1:9" x14ac:dyDescent="0.2">
@@ -12419,7 +12419,7 @@
         <v>0</v>
       </c>
       <c r="I447" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="448" spans="1:9" x14ac:dyDescent="0.2">
@@ -12445,7 +12445,7 @@
         <v>0</v>
       </c>
       <c r="I448" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="449" spans="1:9" x14ac:dyDescent="0.2">
@@ -12471,7 +12471,7 @@
         <v>0</v>
       </c>
       <c r="I449" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="450" spans="1:9" x14ac:dyDescent="0.2">
@@ -12497,7 +12497,7 @@
         <v>0</v>
       </c>
       <c r="I450" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="451" spans="1:9" x14ac:dyDescent="0.2">
@@ -12523,7 +12523,7 @@
         <v>0</v>
       </c>
       <c r="I451" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="452" spans="1:9" x14ac:dyDescent="0.2">
@@ -12549,7 +12549,7 @@
         <v>0</v>
       </c>
       <c r="I452" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="453" spans="1:9" x14ac:dyDescent="0.2">
@@ -12575,7 +12575,7 @@
         <v>0</v>
       </c>
       <c r="I453" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="454" spans="1:9" x14ac:dyDescent="0.2">
@@ -12601,7 +12601,7 @@
         <v>0</v>
       </c>
       <c r="I454" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="455" spans="1:9" x14ac:dyDescent="0.2">
@@ -12627,7 +12627,7 @@
         <v>0</v>
       </c>
       <c r="I455" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="456" spans="1:9" x14ac:dyDescent="0.2">
@@ -12653,7 +12653,7 @@
         <v>0</v>
       </c>
       <c r="I456" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="457" spans="1:9" x14ac:dyDescent="0.2">
@@ -12679,7 +12679,7 @@
         <v>0</v>
       </c>
       <c r="I457" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="458" spans="1:9" x14ac:dyDescent="0.2">
@@ -12705,7 +12705,7 @@
         <v>0</v>
       </c>
       <c r="I458" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="459" spans="1:9" x14ac:dyDescent="0.2">
@@ -12731,7 +12731,7 @@
         <v>0</v>
       </c>
       <c r="I459" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="460" spans="1:9" x14ac:dyDescent="0.2">
@@ -12757,7 +12757,7 @@
         <v>0</v>
       </c>
       <c r="I460" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="461" spans="1:9" x14ac:dyDescent="0.2">
@@ -12783,7 +12783,7 @@
         <v>0</v>
       </c>
       <c r="I461" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="462" spans="1:9" x14ac:dyDescent="0.2">
@@ -12809,7 +12809,7 @@
         <v>0</v>
       </c>
       <c r="I462" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="463" spans="1:9" x14ac:dyDescent="0.2">
@@ -12835,7 +12835,7 @@
         <v>0</v>
       </c>
       <c r="I463" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="464" spans="1:9" x14ac:dyDescent="0.2">
@@ -12861,7 +12861,7 @@
         <v>0</v>
       </c>
       <c r="I464" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="465" spans="1:9" x14ac:dyDescent="0.2">
@@ -12887,7 +12887,7 @@
         <v>0</v>
       </c>
       <c r="I465" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="466" spans="1:9" x14ac:dyDescent="0.2">
@@ -12913,7 +12913,7 @@
         <v>0</v>
       </c>
       <c r="I466" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="467" spans="1:9" x14ac:dyDescent="0.2">
@@ -12939,7 +12939,7 @@
         <v>0</v>
       </c>
       <c r="I467" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="468" spans="1:9" x14ac:dyDescent="0.2">
@@ -12965,7 +12965,7 @@
         <v>0</v>
       </c>
       <c r="I468" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="469" spans="1:9" x14ac:dyDescent="0.2">
@@ -12991,7 +12991,7 @@
         <v>0</v>
       </c>
       <c r="I469" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="470" spans="1:9" x14ac:dyDescent="0.2">
@@ -13017,7 +13017,7 @@
         <v>0</v>
       </c>
       <c r="I470" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="471" spans="1:9" x14ac:dyDescent="0.2">
@@ -13043,7 +13043,7 @@
         <v>0</v>
       </c>
       <c r="I471" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="472" spans="1:9" x14ac:dyDescent="0.2">
@@ -13069,7 +13069,7 @@
         <v>0</v>
       </c>
       <c r="I472" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="473" spans="1:9" x14ac:dyDescent="0.2">
@@ -13095,7 +13095,7 @@
         <v>0</v>
       </c>
       <c r="I473" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="474" spans="1:9" x14ac:dyDescent="0.2">
@@ -13121,7 +13121,7 @@
         <v>0</v>
       </c>
       <c r="I474" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="475" spans="1:9" x14ac:dyDescent="0.2">
@@ -13147,7 +13147,7 @@
         <v>0</v>
       </c>
       <c r="I475" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="476" spans="1:9" x14ac:dyDescent="0.2">
@@ -13173,7 +13173,7 @@
         <v>0</v>
       </c>
       <c r="I476" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="477" spans="1:9" x14ac:dyDescent="0.2">
@@ -13199,7 +13199,7 @@
         <v>0</v>
       </c>
       <c r="I477" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="478" spans="1:9" x14ac:dyDescent="0.2">
@@ -13225,7 +13225,7 @@
         <v>0</v>
       </c>
       <c r="I478" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="479" spans="1:9" x14ac:dyDescent="0.2">
@@ -13251,7 +13251,7 @@
         <v>0</v>
       </c>
       <c r="I479" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="480" spans="1:9" x14ac:dyDescent="0.2">
@@ -13277,7 +13277,7 @@
         <v>0</v>
       </c>
       <c r="I480" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="481" spans="1:9" x14ac:dyDescent="0.2">
@@ -13303,7 +13303,7 @@
         <v>0</v>
       </c>
       <c r="I481" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="482" spans="1:9" x14ac:dyDescent="0.2">
@@ -13329,7 +13329,7 @@
         <v>0</v>
       </c>
       <c r="I482" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="483" spans="1:9" x14ac:dyDescent="0.2">
@@ -13355,7 +13355,7 @@
         <v>0</v>
       </c>
       <c r="I483" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="484" spans="1:9" x14ac:dyDescent="0.2">
@@ -13381,7 +13381,7 @@
         <v>0</v>
       </c>
       <c r="I484" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="485" spans="1:9" x14ac:dyDescent="0.2">
@@ -13407,7 +13407,7 @@
         <v>0</v>
       </c>
       <c r="I485" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="486" spans="1:9" x14ac:dyDescent="0.2">
@@ -13433,7 +13433,7 @@
         <v>0</v>
       </c>
       <c r="I486" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="487" spans="1:9" x14ac:dyDescent="0.2">
@@ -13459,7 +13459,7 @@
         <v>0</v>
       </c>
       <c r="I487" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="488" spans="1:9" x14ac:dyDescent="0.2">
@@ -13485,7 +13485,7 @@
         <v>0</v>
       </c>
       <c r="I488" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="489" spans="1:9" x14ac:dyDescent="0.2">
@@ -13511,7 +13511,7 @@
         <v>0</v>
       </c>
       <c r="I489" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="490" spans="1:9" x14ac:dyDescent="0.2">
@@ -13537,7 +13537,7 @@
         <v>0</v>
       </c>
       <c r="I490" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="491" spans="1:9" x14ac:dyDescent="0.2">
@@ -13563,7 +13563,7 @@
         <v>0</v>
       </c>
       <c r="I491" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="492" spans="1:9" x14ac:dyDescent="0.2">
@@ -13589,7 +13589,7 @@
         <v>0</v>
       </c>
       <c r="I492" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="493" spans="1:9" x14ac:dyDescent="0.2">
@@ -13615,7 +13615,7 @@
         <v>0</v>
       </c>
       <c r="I493" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="494" spans="1:9" x14ac:dyDescent="0.2">
@@ -13641,7 +13641,7 @@
         <v>0</v>
       </c>
       <c r="I494" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="495" spans="1:9" x14ac:dyDescent="0.2">
@@ -13667,7 +13667,7 @@
         <v>0</v>
       </c>
       <c r="I495" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="496" spans="1:9" x14ac:dyDescent="0.2">
@@ -13693,7 +13693,7 @@
         <v>0</v>
       </c>
       <c r="I496" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="497" spans="1:9" x14ac:dyDescent="0.2">
@@ -13719,7 +13719,7 @@
         <v>0</v>
       </c>
       <c r="I497" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="498" spans="1:9" x14ac:dyDescent="0.2">
@@ -13745,7 +13745,7 @@
         <v>0</v>
       </c>
       <c r="I498" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="499" spans="1:9" x14ac:dyDescent="0.2">
@@ -13771,7 +13771,7 @@
         <v>0</v>
       </c>
       <c r="I499" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="500" spans="1:9" x14ac:dyDescent="0.2">
@@ -13797,7 +13797,7 @@
         <v>0</v>
       </c>
       <c r="I500" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="501" spans="1:9" x14ac:dyDescent="0.2">
@@ -13823,7 +13823,7 @@
         <v>0</v>
       </c>
       <c r="I501" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="502" spans="1:9" x14ac:dyDescent="0.2">
@@ -13849,7 +13849,7 @@
         <v>0</v>
       </c>
       <c r="I502" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="503" spans="1:9" x14ac:dyDescent="0.2">
@@ -13875,7 +13875,7 @@
         <v>0</v>
       </c>
       <c r="I503" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="504" spans="1:9" x14ac:dyDescent="0.2">
@@ -13901,7 +13901,7 @@
         <v>0</v>
       </c>
       <c r="I504" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="505" spans="1:9" x14ac:dyDescent="0.2">
@@ -13927,7 +13927,7 @@
         <v>0</v>
       </c>
       <c r="I505" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="506" spans="1:9" x14ac:dyDescent="0.2">
@@ -13953,7 +13953,7 @@
         <v>0</v>
       </c>
       <c r="I506" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="507" spans="1:9" x14ac:dyDescent="0.2">
@@ -13979,7 +13979,7 @@
         <v>0</v>
       </c>
       <c r="I507" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="508" spans="1:9" x14ac:dyDescent="0.2">
@@ -14005,7 +14005,7 @@
         <v>0</v>
       </c>
       <c r="I508" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="509" spans="1:9" x14ac:dyDescent="0.2">
@@ -14031,7 +14031,7 @@
         <v>0</v>
       </c>
       <c r="I509" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="510" spans="1:9" x14ac:dyDescent="0.2">
@@ -14057,7 +14057,7 @@
         <v>0</v>
       </c>
       <c r="I510" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="511" spans="1:9" x14ac:dyDescent="0.2">
@@ -14083,7 +14083,7 @@
         <v>0</v>
       </c>
       <c r="I511" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="512" spans="1:9" x14ac:dyDescent="0.2">
@@ -14109,7 +14109,7 @@
         <v>0</v>
       </c>
       <c r="I512" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="513" spans="1:9" x14ac:dyDescent="0.2">
@@ -14135,7 +14135,7 @@
         <v>0</v>
       </c>
       <c r="I513" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="514" spans="1:9" x14ac:dyDescent="0.2">
@@ -14161,7 +14161,7 @@
         <v>0</v>
       </c>
       <c r="I514" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="515" spans="1:9" x14ac:dyDescent="0.2">
@@ -14187,7 +14187,7 @@
         <v>0</v>
       </c>
       <c r="I515" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="516" spans="1:9" x14ac:dyDescent="0.2">
@@ -14213,7 +14213,7 @@
         <v>0</v>
       </c>
       <c r="I516" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="517" spans="1:9" x14ac:dyDescent="0.2">
@@ -14239,7 +14239,7 @@
         <v>0</v>
       </c>
       <c r="I517" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="518" spans="1:9" x14ac:dyDescent="0.2">
@@ -14265,7 +14265,7 @@
         <v>0</v>
       </c>
       <c r="I518" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="519" spans="1:9" x14ac:dyDescent="0.2">
@@ -14291,7 +14291,7 @@
         <v>0</v>
       </c>
       <c r="I519" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="520" spans="1:9" x14ac:dyDescent="0.2">
@@ -14317,7 +14317,7 @@
         <v>0</v>
       </c>
       <c r="I520" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="521" spans="1:9" x14ac:dyDescent="0.2">
@@ -14343,7 +14343,7 @@
         <v>0</v>
       </c>
       <c r="I521" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="522" spans="1:9" x14ac:dyDescent="0.2">
@@ -14369,7 +14369,7 @@
         <v>0</v>
       </c>
       <c r="I522" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="523" spans="1:9" x14ac:dyDescent="0.2">
@@ -14395,7 +14395,7 @@
         <v>0</v>
       </c>
       <c r="I523" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="524" spans="1:9" x14ac:dyDescent="0.2">
@@ -14421,7 +14421,7 @@
         <v>0</v>
       </c>
       <c r="I524" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="525" spans="1:9" x14ac:dyDescent="0.2">
@@ -14447,7 +14447,7 @@
         <v>0</v>
       </c>
       <c r="I525" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="526" spans="1:9" x14ac:dyDescent="0.2">
@@ -14473,7 +14473,7 @@
         <v>0</v>
       </c>
       <c r="I526" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="527" spans="1:9" x14ac:dyDescent="0.2">
@@ -14499,7 +14499,7 @@
         <v>0</v>
       </c>
       <c r="I527" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="528" spans="1:9" x14ac:dyDescent="0.2">
@@ -14525,7 +14525,7 @@
         <v>0</v>
       </c>
       <c r="I528" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="529" spans="1:9" x14ac:dyDescent="0.2">
@@ -14551,7 +14551,7 @@
         <v>0</v>
       </c>
       <c r="I529" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="530" spans="1:9" x14ac:dyDescent="0.2">
@@ -14577,7 +14577,7 @@
         <v>0</v>
       </c>
       <c r="I530" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="531" spans="1:9" x14ac:dyDescent="0.2">
@@ -14603,7 +14603,7 @@
         <v>0</v>
       </c>
       <c r="I531" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="532" spans="1:9" x14ac:dyDescent="0.2">
@@ -14629,7 +14629,7 @@
         <v>0</v>
       </c>
       <c r="I532" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="533" spans="1:9" x14ac:dyDescent="0.2">
@@ -14655,7 +14655,7 @@
         <v>0</v>
       </c>
       <c r="I533" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="534" spans="1:9" x14ac:dyDescent="0.2">
@@ -14681,7 +14681,7 @@
         <v>0</v>
       </c>
       <c r="I534" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="535" spans="1:9" x14ac:dyDescent="0.2">
@@ -14707,7 +14707,7 @@
         <v>0</v>
       </c>
       <c r="I535" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="536" spans="1:9" x14ac:dyDescent="0.2">
@@ -14733,7 +14733,7 @@
         <v>0</v>
       </c>
       <c r="I536" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="537" spans="1:9" x14ac:dyDescent="0.2">
@@ -14759,7 +14759,7 @@
         <v>0</v>
       </c>
       <c r="I537" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="538" spans="1:9" x14ac:dyDescent="0.2">
@@ -14785,7 +14785,7 @@
         <v>0</v>
       </c>
       <c r="I538" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="539" spans="1:9" x14ac:dyDescent="0.2">
@@ -14811,7 +14811,7 @@
         <v>0</v>
       </c>
       <c r="I539" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="540" spans="1:9" x14ac:dyDescent="0.2">
@@ -14837,7 +14837,7 @@
         <v>0</v>
       </c>
       <c r="I540" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="541" spans="1:9" x14ac:dyDescent="0.2">
@@ -14863,7 +14863,7 @@
         <v>0</v>
       </c>
       <c r="I541" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="542" spans="1:9" x14ac:dyDescent="0.2">
@@ -14889,7 +14889,7 @@
         <v>0</v>
       </c>
       <c r="I542" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="543" spans="1:9" x14ac:dyDescent="0.2">
@@ -14915,7 +14915,7 @@
         <v>0</v>
       </c>
       <c r="I543" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="544" spans="1:9" x14ac:dyDescent="0.2">
@@ -14941,7 +14941,7 @@
         <v>0</v>
       </c>
       <c r="I544" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="545" spans="1:9" x14ac:dyDescent="0.2">
@@ -14967,7 +14967,7 @@
         <v>0</v>
       </c>
       <c r="I545" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="546" spans="1:9" x14ac:dyDescent="0.2">
@@ -14993,7 +14993,7 @@
         <v>0</v>
       </c>
       <c r="I546" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="547" spans="1:9" x14ac:dyDescent="0.2">
@@ -15019,7 +15019,7 @@
         <v>0</v>
       </c>
       <c r="I547" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="548" spans="1:9" x14ac:dyDescent="0.2">
@@ -15045,7 +15045,7 @@
         <v>0</v>
       </c>
       <c r="I548" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="549" spans="1:9" x14ac:dyDescent="0.2">
@@ -15071,7 +15071,7 @@
         <v>0</v>
       </c>
       <c r="I549" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="550" spans="1:9" x14ac:dyDescent="0.2">
@@ -15097,7 +15097,7 @@
         <v>0</v>
       </c>
       <c r="I550" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="551" spans="1:9" x14ac:dyDescent="0.2">
@@ -15123,7 +15123,7 @@
         <v>0</v>
       </c>
       <c r="I551" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="552" spans="1:9" x14ac:dyDescent="0.2">
@@ -15149,7 +15149,7 @@
         <v>0</v>
       </c>
       <c r="I552" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="553" spans="1:9" x14ac:dyDescent="0.2">
@@ -15175,7 +15175,7 @@
         <v>0</v>
       </c>
       <c r="I553" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="554" spans="1:9" x14ac:dyDescent="0.2">
@@ -15201,7 +15201,7 @@
         <v>0</v>
       </c>
       <c r="I554" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="555" spans="1:9" x14ac:dyDescent="0.2">
@@ -15227,7 +15227,7 @@
         <v>0</v>
       </c>
       <c r="I555" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="556" spans="1:9" x14ac:dyDescent="0.2">
@@ -15253,7 +15253,7 @@
         <v>0</v>
       </c>
       <c r="I556" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="557" spans="1:9" x14ac:dyDescent="0.2">
@@ -15279,7 +15279,7 @@
         <v>0</v>
       </c>
       <c r="I557" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="558" spans="1:9" x14ac:dyDescent="0.2">
@@ -15305,7 +15305,7 @@
         <v>0</v>
       </c>
       <c r="I558" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="559" spans="1:9" x14ac:dyDescent="0.2">
@@ -15331,7 +15331,7 @@
         <v>0</v>
       </c>
       <c r="I559" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="560" spans="1:9" x14ac:dyDescent="0.2">
@@ -15357,7 +15357,7 @@
         <v>0</v>
       </c>
       <c r="I560" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="561" spans="1:9" x14ac:dyDescent="0.2">
@@ -15383,7 +15383,7 @@
         <v>0</v>
       </c>
       <c r="I561" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="562" spans="1:9" x14ac:dyDescent="0.2">
@@ -15409,7 +15409,7 @@
         <v>0</v>
       </c>
       <c r="I562" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="563" spans="1:9" x14ac:dyDescent="0.2">
@@ -15435,7 +15435,7 @@
         <v>0</v>
       </c>
       <c r="I563" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="564" spans="1:9" x14ac:dyDescent="0.2">
@@ -15461,7 +15461,7 @@
         <v>0</v>
       </c>
       <c r="I564" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="565" spans="1:9" x14ac:dyDescent="0.2">
@@ -15487,7 +15487,7 @@
         <v>0</v>
       </c>
       <c r="I565" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="566" spans="1:9" x14ac:dyDescent="0.2">
@@ -15513,7 +15513,7 @@
         <v>0</v>
       </c>
       <c r="I566" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="567" spans="1:9" x14ac:dyDescent="0.2">
@@ -15539,7 +15539,7 @@
         <v>0</v>
       </c>
       <c r="I567" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="568" spans="1:9" x14ac:dyDescent="0.2">
@@ -15565,7 +15565,7 @@
         <v>0</v>
       </c>
       <c r="I568" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="569" spans="1:9" x14ac:dyDescent="0.2">
@@ -15591,7 +15591,7 @@
         <v>0</v>
       </c>
       <c r="I569" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="570" spans="1:9" x14ac:dyDescent="0.2">
@@ -15617,7 +15617,7 @@
         <v>0</v>
       </c>
       <c r="I570" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="571" spans="1:9" x14ac:dyDescent="0.2">
@@ -15643,7 +15643,7 @@
         <v>0</v>
       </c>
       <c r="I571" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="572" spans="1:9" x14ac:dyDescent="0.2">
@@ -15669,7 +15669,7 @@
         <v>0</v>
       </c>
       <c r="I572" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="573" spans="1:9" x14ac:dyDescent="0.2">
@@ -15695,7 +15695,7 @@
         <v>0</v>
       </c>
       <c r="I573" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="574" spans="1:9" x14ac:dyDescent="0.2">
@@ -15721,7 +15721,7 @@
         <v>0</v>
       </c>
       <c r="I574" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="575" spans="1:9" x14ac:dyDescent="0.2">
@@ -15747,7 +15747,7 @@
         <v>0</v>
       </c>
       <c r="I575" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="576" spans="1:9" x14ac:dyDescent="0.2">
@@ -15773,7 +15773,7 @@
         <v>0</v>
       </c>
       <c r="I576" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="577" spans="1:9" x14ac:dyDescent="0.2">
@@ -15799,7 +15799,7 @@
         <v>0</v>
       </c>
       <c r="I577" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="578" spans="1:9" x14ac:dyDescent="0.2">
@@ -15825,7 +15825,7 @@
         <v>0</v>
       </c>
       <c r="I578" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="579" spans="1:9" x14ac:dyDescent="0.2">
@@ -15851,7 +15851,7 @@
         <v>0</v>
       </c>
       <c r="I579" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="580" spans="1:9" x14ac:dyDescent="0.2">
@@ -15877,7 +15877,7 @@
         <v>0</v>
       </c>
       <c r="I580" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="581" spans="1:9" x14ac:dyDescent="0.2">
@@ -15903,7 +15903,7 @@
         <v>0</v>
       </c>
       <c r="I581" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="582" spans="1:9" x14ac:dyDescent="0.2">
@@ -15929,7 +15929,7 @@
         <v>0</v>
       </c>
       <c r="I582" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="583" spans="1:9" x14ac:dyDescent="0.2">
@@ -15955,7 +15955,7 @@
         <v>0</v>
       </c>
       <c r="I583" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="584" spans="1:9" x14ac:dyDescent="0.2">
@@ -15981,7 +15981,7 @@
         <v>0</v>
       </c>
       <c r="I584" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="585" spans="1:9" x14ac:dyDescent="0.2">
@@ -16007,7 +16007,7 @@
         <v>0</v>
       </c>
       <c r="I585" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="586" spans="1:9" x14ac:dyDescent="0.2">
@@ -16033,7 +16033,7 @@
         <v>0</v>
       </c>
       <c r="I586" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="587" spans="1:9" x14ac:dyDescent="0.2">
@@ -16059,7 +16059,7 @@
         <v>0</v>
       </c>
       <c r="I587" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="588" spans="1:9" x14ac:dyDescent="0.2">
@@ -16085,7 +16085,7 @@
         <v>0</v>
       </c>
       <c r="I588" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="589" spans="1:9" x14ac:dyDescent="0.2">
@@ -16111,7 +16111,7 @@
         <v>0</v>
       </c>
       <c r="I589" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="590" spans="1:9" x14ac:dyDescent="0.2">
@@ -16137,7 +16137,7 @@
         <v>0</v>
       </c>
       <c r="I590" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="591" spans="1:9" x14ac:dyDescent="0.2">
@@ -16163,7 +16163,7 @@
         <v>0</v>
       </c>
       <c r="I591" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="592" spans="1:9" x14ac:dyDescent="0.2">
@@ -16189,7 +16189,7 @@
         <v>0</v>
       </c>
       <c r="I592" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="593" spans="1:9" x14ac:dyDescent="0.2">
@@ -16215,7 +16215,7 @@
         <v>0</v>
       </c>
       <c r="I593" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="594" spans="1:9" x14ac:dyDescent="0.2">
@@ -16241,7 +16241,7 @@
         <v>0</v>
       </c>
       <c r="I594" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="595" spans="1:9" x14ac:dyDescent="0.2">
@@ -16267,7 +16267,7 @@
         <v>0</v>
       </c>
       <c r="I595" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="596" spans="1:9" x14ac:dyDescent="0.2">
@@ -16293,7 +16293,7 @@
         <v>0</v>
       </c>
       <c r="I596" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="597" spans="1:9" x14ac:dyDescent="0.2">
@@ -16319,7 +16319,7 @@
         <v>0</v>
       </c>
       <c r="I597" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/generated-files/BuildingUpgrade.xlsx
+++ b/generated-files/BuildingUpgrade.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28321"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\java\generated-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59D60361-7BD5-44D3-976F-87D97B3A24F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A189E78-2179-49A1-86A1-DCE3F35AA05E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3855" yWindow="3855" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BuildingUpgrade" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -486,8 +485,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H597"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView tabSelected="1" topLeftCell="A205" workbookViewId="0">
+      <selection activeCell="M227" sqref="M227"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -565,13 +564,13 @@
         <v>5</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="H3" t="s">
         <v>15</v>
@@ -591,13 +590,13 @@
         <v>10</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H4" t="s">
         <v>15</v>
@@ -617,13 +616,13 @@
         <v>15</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="H5" t="s">
         <v>16</v>
@@ -643,13 +642,13 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H6" t="s">
         <v>17</v>
@@ -669,13 +668,13 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="H7" t="s">
         <v>18</v>
@@ -695,13 +694,13 @@
         <v>30</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="H8" t="s">
         <v>19</v>
@@ -721,13 +720,13 @@
         <v>35</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="H9" t="s">
         <v>20</v>
@@ -747,13 +746,13 @@
         <v>40</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H10" t="s">
         <v>21</v>
@@ -773,13 +772,13 @@
         <v>45</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="H11" t="s">
         <v>22</v>
@@ -799,13 +798,13 @@
         <v>50</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="H12" t="s">
         <v>23</v>
@@ -825,13 +824,13 @@
         <v>55</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>1100</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>550</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>550</v>
       </c>
       <c r="H13" t="s">
         <v>24</v>
@@ -851,13 +850,13 @@
         <v>60</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="H14" t="s">
         <v>25</v>
@@ -877,13 +876,13 @@
         <v>65</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>1300</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>650</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>650</v>
       </c>
       <c r="H15" t="s">
         <v>26</v>
@@ -903,13 +902,13 @@
         <v>70</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>1400</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="H16" t="s">
         <v>17</v>
@@ -929,13 +928,13 @@
         <v>75</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>750</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>750</v>
       </c>
       <c r="H17" t="s">
         <v>18</v>
@@ -955,13 +954,13 @@
         <v>80</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>1600</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="H18" t="s">
         <v>19</v>
@@ -981,13 +980,13 @@
         <v>85</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>1700</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>850</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>850</v>
       </c>
       <c r="H19" t="s">
         <v>20</v>
@@ -1007,13 +1006,13 @@
         <v>90</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>1800</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="H20" t="s">
         <v>21</v>
@@ -1033,13 +1032,13 @@
         <v>95</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>1900</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>950</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>950</v>
       </c>
       <c r="H21" t="s">
         <v>22</v>
@@ -1059,13 +1058,13 @@
         <v>100</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="H22" t="s">
         <v>23</v>
@@ -1085,13 +1084,13 @@
         <v>105</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>2100</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>1050</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>1050</v>
       </c>
       <c r="H23" t="s">
         <v>24</v>
@@ -1111,13 +1110,13 @@
         <v>110</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>2200</v>
       </c>
       <c r="F24">
-        <v>0</v>
+        <v>1100</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>1100</v>
       </c>
       <c r="H24" t="s">
         <v>25</v>
@@ -1137,13 +1136,13 @@
         <v>115</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>2300</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>1150</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>1150</v>
       </c>
       <c r="H25" t="s">
         <v>26</v>
@@ -1163,13 +1162,13 @@
         <v>120</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>2400</v>
       </c>
       <c r="F26">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="G26">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="H26" t="s">
         <v>27</v>
@@ -1189,13 +1188,13 @@
         <v>125</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>1250</v>
       </c>
       <c r="G27">
-        <v>0</v>
+        <v>1250</v>
       </c>
       <c r="H27" t="s">
         <v>28</v>
@@ -1215,13 +1214,13 @@
         <v>130</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>2600</v>
       </c>
       <c r="F28">
-        <v>0</v>
+        <v>1300</v>
       </c>
       <c r="G28">
-        <v>0</v>
+        <v>1300</v>
       </c>
       <c r="H28" t="s">
         <v>29</v>
@@ -1241,13 +1240,13 @@
         <v>135</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>2700</v>
       </c>
       <c r="F29">
-        <v>0</v>
+        <v>1350</v>
       </c>
       <c r="G29">
-        <v>0</v>
+        <v>1350</v>
       </c>
       <c r="H29" t="s">
         <v>20</v>
@@ -1267,13 +1266,13 @@
         <v>140</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>2800</v>
       </c>
       <c r="F30">
-        <v>0</v>
+        <v>1400</v>
       </c>
       <c r="G30">
-        <v>0</v>
+        <v>1400</v>
       </c>
       <c r="H30" t="s">
         <v>21</v>
@@ -1293,13 +1292,13 @@
         <v>145</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>2900</v>
       </c>
       <c r="F31">
-        <v>0</v>
+        <v>1450</v>
       </c>
       <c r="G31">
-        <v>0</v>
+        <v>1450</v>
       </c>
       <c r="H31" t="s">
         <v>22</v>
@@ -1319,13 +1318,13 @@
         <v>150</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="F32">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="G32">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="H32" t="s">
         <v>23</v>
@@ -1345,13 +1344,13 @@
         <v>155</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>3100</v>
       </c>
       <c r="F33">
-        <v>0</v>
+        <v>1550</v>
       </c>
       <c r="G33">
-        <v>0</v>
+        <v>1550</v>
       </c>
       <c r="H33" t="s">
         <v>24</v>
@@ -1371,13 +1370,13 @@
         <v>160</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>3200</v>
       </c>
       <c r="F34">
-        <v>0</v>
+        <v>1600</v>
       </c>
       <c r="G34">
-        <v>0</v>
+        <v>1600</v>
       </c>
       <c r="H34" t="s">
         <v>26</v>
@@ -1397,13 +1396,13 @@
         <v>165</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>3300</v>
       </c>
       <c r="F35">
-        <v>0</v>
+        <v>1650</v>
       </c>
       <c r="G35">
-        <v>0</v>
+        <v>1650</v>
       </c>
       <c r="H35" t="s">
         <v>27</v>
@@ -1423,13 +1422,13 @@
         <v>170</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>3400</v>
       </c>
       <c r="F36">
-        <v>0</v>
+        <v>1700</v>
       </c>
       <c r="G36">
-        <v>0</v>
+        <v>1700</v>
       </c>
       <c r="H36" t="s">
         <v>29</v>
@@ -1449,13 +1448,13 @@
         <v>175</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>3500</v>
       </c>
       <c r="F37">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="G37">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="H37" t="s">
         <v>30</v>
@@ -1475,13 +1474,13 @@
         <v>5</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="F38">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="G38">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="H38" t="s">
         <v>31</v>
@@ -1501,13 +1500,13 @@
         <v>10</v>
       </c>
       <c r="E39">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="F39">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="G39">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="H39" t="s">
         <v>15</v>
@@ -1527,13 +1526,13 @@
         <v>15</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F40">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="G40">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="H40" t="s">
         <v>16</v>
@@ -1553,13 +1552,13 @@
         <v>20</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="F41">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="G41">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="H41" t="s">
         <v>17</v>
@@ -1579,13 +1578,13 @@
         <v>25</v>
       </c>
       <c r="E42">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="F42">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="G42">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="H42" t="s">
         <v>18</v>
@@ -1605,13 +1604,13 @@
         <v>30</v>
       </c>
       <c r="E43">
-        <v>0</v>
+        <v>550</v>
       </c>
       <c r="F43">
-        <v>0</v>
+        <v>1100</v>
       </c>
       <c r="G43">
-        <v>0</v>
+        <v>1100</v>
       </c>
       <c r="H43" t="s">
         <v>19</v>
@@ -1631,13 +1630,13 @@
         <v>35</v>
       </c>
       <c r="E44">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="F44">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="G44">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="H44" t="s">
         <v>20</v>
@@ -1657,13 +1656,13 @@
         <v>40</v>
       </c>
       <c r="E45">
-        <v>0</v>
+        <v>650</v>
       </c>
       <c r="F45">
-        <v>0</v>
+        <v>1300</v>
       </c>
       <c r="G45">
-        <v>0</v>
+        <v>1300</v>
       </c>
       <c r="H45" t="s">
         <v>21</v>
@@ -1683,13 +1682,13 @@
         <v>45</v>
       </c>
       <c r="E46">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="F46">
-        <v>0</v>
+        <v>1400</v>
       </c>
       <c r="G46">
-        <v>0</v>
+        <v>1400</v>
       </c>
       <c r="H46" t="s">
         <v>22</v>
@@ -1709,13 +1708,13 @@
         <v>50</v>
       </c>
       <c r="E47">
-        <v>0</v>
+        <v>750</v>
       </c>
       <c r="F47">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="G47">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="H47" t="s">
         <v>23</v>
@@ -1735,13 +1734,13 @@
         <v>55</v>
       </c>
       <c r="E48">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="F48">
-        <v>0</v>
+        <v>1600</v>
       </c>
       <c r="G48">
-        <v>0</v>
+        <v>1600</v>
       </c>
       <c r="H48" t="s">
         <v>24</v>
@@ -1761,13 +1760,13 @@
         <v>60</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>850</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>1700</v>
       </c>
       <c r="G49">
-        <v>0</v>
+        <v>1700</v>
       </c>
       <c r="H49" t="s">
         <v>25</v>
@@ -1787,13 +1786,13 @@
         <v>65</v>
       </c>
       <c r="E50">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="F50">
-        <v>0</v>
+        <v>1800</v>
       </c>
       <c r="G50">
-        <v>0</v>
+        <v>1800</v>
       </c>
       <c r="H50" t="s">
         <v>26</v>
@@ -1813,13 +1812,13 @@
         <v>70</v>
       </c>
       <c r="E51">
-        <v>0</v>
+        <v>950</v>
       </c>
       <c r="F51">
-        <v>0</v>
+        <v>1900</v>
       </c>
       <c r="G51">
-        <v>0</v>
+        <v>1900</v>
       </c>
       <c r="H51" t="s">
         <v>17</v>
@@ -1839,13 +1838,13 @@
         <v>75</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G52">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="H52" t="s">
         <v>18</v>
@@ -1865,13 +1864,13 @@
         <v>80</v>
       </c>
       <c r="E53">
-        <v>0</v>
+        <v>1050</v>
       </c>
       <c r="F53">
-        <v>0</v>
+        <v>2100</v>
       </c>
       <c r="G53">
-        <v>0</v>
+        <v>2100</v>
       </c>
       <c r="H53" t="s">
         <v>19</v>
@@ -1891,13 +1890,13 @@
         <v>85</v>
       </c>
       <c r="E54">
-        <v>0</v>
+        <v>1100</v>
       </c>
       <c r="F54">
-        <v>0</v>
+        <v>2200</v>
       </c>
       <c r="G54">
-        <v>0</v>
+        <v>2200</v>
       </c>
       <c r="H54" t="s">
         <v>20</v>
@@ -1917,13 +1916,13 @@
         <v>90</v>
       </c>
       <c r="E55">
-        <v>0</v>
+        <v>1150</v>
       </c>
       <c r="F55">
-        <v>0</v>
+        <v>2300</v>
       </c>
       <c r="G55">
-        <v>0</v>
+        <v>2300</v>
       </c>
       <c r="H55" t="s">
         <v>21</v>
@@ -1943,13 +1942,13 @@
         <v>95</v>
       </c>
       <c r="E56">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="F56">
-        <v>0</v>
+        <v>2400</v>
       </c>
       <c r="G56">
-        <v>0</v>
+        <v>2400</v>
       </c>
       <c r="H56" t="s">
         <v>22</v>
@@ -1969,13 +1968,13 @@
         <v>100</v>
       </c>
       <c r="E57">
-        <v>0</v>
+        <v>1250</v>
       </c>
       <c r="F57">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="G57">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="H57" t="s">
         <v>23</v>
@@ -1995,13 +1994,13 @@
         <v>105</v>
       </c>
       <c r="E58">
-        <v>0</v>
+        <v>1300</v>
       </c>
       <c r="F58">
-        <v>0</v>
+        <v>2600</v>
       </c>
       <c r="G58">
-        <v>0</v>
+        <v>2600</v>
       </c>
       <c r="H58" t="s">
         <v>24</v>
@@ -2021,13 +2020,13 @@
         <v>110</v>
       </c>
       <c r="E59">
-        <v>0</v>
+        <v>1350</v>
       </c>
       <c r="F59">
-        <v>0</v>
+        <v>2700</v>
       </c>
       <c r="G59">
-        <v>0</v>
+        <v>2700</v>
       </c>
       <c r="H59" t="s">
         <v>25</v>
@@ -2047,13 +2046,13 @@
         <v>115</v>
       </c>
       <c r="E60">
-        <v>0</v>
+        <v>1400</v>
       </c>
       <c r="F60">
-        <v>0</v>
+        <v>2800</v>
       </c>
       <c r="G60">
-        <v>0</v>
+        <v>2800</v>
       </c>
       <c r="H60" t="s">
         <v>26</v>
@@ -2073,13 +2072,13 @@
         <v>120</v>
       </c>
       <c r="E61">
-        <v>0</v>
+        <v>1450</v>
       </c>
       <c r="F61">
-        <v>0</v>
+        <v>2900</v>
       </c>
       <c r="G61">
-        <v>0</v>
+        <v>2900</v>
       </c>
       <c r="H61" t="s">
         <v>27</v>
@@ -2099,13 +2098,13 @@
         <v>125</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="F62">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="G62">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="H62" t="s">
         <v>28</v>
@@ -2125,13 +2124,13 @@
         <v>130</v>
       </c>
       <c r="E63">
-        <v>0</v>
+        <v>1550</v>
       </c>
       <c r="F63">
-        <v>0</v>
+        <v>3100</v>
       </c>
       <c r="G63">
-        <v>0</v>
+        <v>3100</v>
       </c>
       <c r="H63" t="s">
         <v>29</v>
@@ -2151,13 +2150,13 @@
         <v>135</v>
       </c>
       <c r="E64">
-        <v>0</v>
+        <v>1600</v>
       </c>
       <c r="F64">
-        <v>0</v>
+        <v>3200</v>
       </c>
       <c r="G64">
-        <v>0</v>
+        <v>3200</v>
       </c>
       <c r="H64" t="s">
         <v>20</v>
@@ -2177,13 +2176,13 @@
         <v>140</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>1650</v>
       </c>
       <c r="F65">
-        <v>0</v>
+        <v>3300</v>
       </c>
       <c r="G65">
-        <v>0</v>
+        <v>3300</v>
       </c>
       <c r="H65" t="s">
         <v>21</v>
@@ -2203,13 +2202,13 @@
         <v>145</v>
       </c>
       <c r="E66">
-        <v>0</v>
+        <v>1700</v>
       </c>
       <c r="F66">
-        <v>0</v>
+        <v>3400</v>
       </c>
       <c r="G66">
-        <v>0</v>
+        <v>3400</v>
       </c>
       <c r="H66" t="s">
         <v>22</v>
@@ -2229,13 +2228,13 @@
         <v>150</v>
       </c>
       <c r="E67">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="F67">
-        <v>0</v>
+        <v>3500</v>
       </c>
       <c r="G67">
-        <v>0</v>
+        <v>3500</v>
       </c>
       <c r="H67" t="s">
         <v>23</v>
@@ -2255,13 +2254,13 @@
         <v>155</v>
       </c>
       <c r="E68">
-        <v>0</v>
+        <v>1800</v>
       </c>
       <c r="F68">
-        <v>0</v>
+        <v>3600</v>
       </c>
       <c r="G68">
-        <v>0</v>
+        <v>3600</v>
       </c>
       <c r="H68" t="s">
         <v>24</v>
@@ -2281,13 +2280,13 @@
         <v>160</v>
       </c>
       <c r="E69">
-        <v>0</v>
+        <v>1850</v>
       </c>
       <c r="F69">
-        <v>0</v>
+        <v>3700</v>
       </c>
       <c r="G69">
-        <v>0</v>
+        <v>3700</v>
       </c>
       <c r="H69" t="s">
         <v>26</v>
@@ -2307,13 +2306,13 @@
         <v>165</v>
       </c>
       <c r="E70">
-        <v>0</v>
+        <v>1900</v>
       </c>
       <c r="F70">
-        <v>0</v>
+        <v>3800</v>
       </c>
       <c r="G70">
-        <v>0</v>
+        <v>3800</v>
       </c>
       <c r="H70" t="s">
         <v>27</v>
@@ -2333,13 +2332,13 @@
         <v>170</v>
       </c>
       <c r="E71">
-        <v>0</v>
+        <v>1950</v>
       </c>
       <c r="F71">
-        <v>0</v>
+        <v>3900</v>
       </c>
       <c r="G71">
-        <v>0</v>
+        <v>3900</v>
       </c>
       <c r="H71" t="s">
         <v>29</v>
@@ -2359,13 +2358,13 @@
         <v>175</v>
       </c>
       <c r="E72">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="F72">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="G72">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="H72" t="s">
         <v>30</v>
@@ -2385,13 +2384,13 @@
         <v>5</v>
       </c>
       <c r="E73">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F73">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G73">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="H73" t="s">
         <v>31</v>
@@ -2411,13 +2410,13 @@
         <v>10</v>
       </c>
       <c r="E74">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="F74">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G74">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H74" t="s">
         <v>15</v>
@@ -2437,13 +2436,13 @@
         <v>15</v>
       </c>
       <c r="E75">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F75">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="G75">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="H75" t="s">
         <v>16</v>
@@ -2463,13 +2462,13 @@
         <v>20</v>
       </c>
       <c r="E76">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="F76">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="G76">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="H76" t="s">
         <v>17</v>
@@ -2489,13 +2488,13 @@
         <v>25</v>
       </c>
       <c r="E77">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="F77">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="G77">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="H77" t="s">
         <v>18</v>
@@ -2515,13 +2514,13 @@
         <v>30</v>
       </c>
       <c r="E78">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="F78">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="G78">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="H78" t="s">
         <v>19</v>
@@ -2541,13 +2540,13 @@
         <v>35</v>
       </c>
       <c r="E79">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="F79">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="G79">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="H79" t="s">
         <v>20</v>
@@ -2567,13 +2566,13 @@
         <v>40</v>
       </c>
       <c r="E80">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="F80">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="G80">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="H80" t="s">
         <v>21</v>
@@ -2593,13 +2592,13 @@
         <v>45</v>
       </c>
       <c r="E81">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="F81">
-        <v>0</v>
+        <v>1100</v>
       </c>
       <c r="G81">
-        <v>0</v>
+        <v>1100</v>
       </c>
       <c r="H81" t="s">
         <v>22</v>
@@ -2619,13 +2618,13 @@
         <v>50</v>
       </c>
       <c r="E82">
-        <v>0</v>
+        <v>1100</v>
       </c>
       <c r="F82">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="G82">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="H82" t="s">
         <v>23</v>
@@ -2645,13 +2644,13 @@
         <v>55</v>
       </c>
       <c r="E83">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="F83">
-        <v>0</v>
+        <v>1300</v>
       </c>
       <c r="G83">
-        <v>0</v>
+        <v>1300</v>
       </c>
       <c r="H83" t="s">
         <v>24</v>
@@ -2671,13 +2670,13 @@
         <v>60</v>
       </c>
       <c r="E84">
-        <v>0</v>
+        <v>1300</v>
       </c>
       <c r="F84">
-        <v>0</v>
+        <v>1400</v>
       </c>
       <c r="G84">
-        <v>0</v>
+        <v>1400</v>
       </c>
       <c r="H84" t="s">
         <v>25</v>
@@ -2697,13 +2696,13 @@
         <v>65</v>
       </c>
       <c r="E85">
-        <v>0</v>
+        <v>1400</v>
       </c>
       <c r="F85">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="G85">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="H85" t="s">
         <v>26</v>
@@ -2723,13 +2722,13 @@
         <v>70</v>
       </c>
       <c r="E86">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="F86">
-        <v>0</v>
+        <v>1600</v>
       </c>
       <c r="G86">
-        <v>0</v>
+        <v>1600</v>
       </c>
       <c r="H86" t="s">
         <v>17</v>
@@ -2749,13 +2748,13 @@
         <v>75</v>
       </c>
       <c r="E87">
-        <v>0</v>
+        <v>1600</v>
       </c>
       <c r="F87">
-        <v>0</v>
+        <v>1700</v>
       </c>
       <c r="G87">
-        <v>0</v>
+        <v>1700</v>
       </c>
       <c r="H87" t="s">
         <v>18</v>
@@ -2775,13 +2774,13 @@
         <v>80</v>
       </c>
       <c r="E88">
-        <v>0</v>
+        <v>1700</v>
       </c>
       <c r="F88">
-        <v>0</v>
+        <v>1800</v>
       </c>
       <c r="G88">
-        <v>0</v>
+        <v>1800</v>
       </c>
       <c r="H88" t="s">
         <v>19</v>
@@ -2801,13 +2800,13 @@
         <v>85</v>
       </c>
       <c r="E89">
-        <v>0</v>
+        <v>1800</v>
       </c>
       <c r="F89">
-        <v>0</v>
+        <v>1900</v>
       </c>
       <c r="G89">
-        <v>0</v>
+        <v>1900</v>
       </c>
       <c r="H89" t="s">
         <v>20</v>
@@ -2827,13 +2826,13 @@
         <v>90</v>
       </c>
       <c r="E90">
-        <v>0</v>
+        <v>1900</v>
       </c>
       <c r="F90">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G90">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="H90" t="s">
         <v>21</v>
@@ -2853,13 +2852,13 @@
         <v>95</v>
       </c>
       <c r="E91">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="F91">
-        <v>0</v>
+        <v>2100</v>
       </c>
       <c r="G91">
-        <v>0</v>
+        <v>2100</v>
       </c>
       <c r="H91" t="s">
         <v>22</v>
@@ -2879,13 +2878,13 @@
         <v>100</v>
       </c>
       <c r="E92">
-        <v>0</v>
+        <v>2100</v>
       </c>
       <c r="F92">
-        <v>0</v>
+        <v>2200</v>
       </c>
       <c r="G92">
-        <v>0</v>
+        <v>2200</v>
       </c>
       <c r="H92" t="s">
         <v>23</v>
@@ -2905,13 +2904,13 @@
         <v>105</v>
       </c>
       <c r="E93">
-        <v>0</v>
+        <v>2200</v>
       </c>
       <c r="F93">
-        <v>0</v>
+        <v>2300</v>
       </c>
       <c r="G93">
-        <v>0</v>
+        <v>2300</v>
       </c>
       <c r="H93" t="s">
         <v>24</v>
@@ -2931,13 +2930,13 @@
         <v>110</v>
       </c>
       <c r="E94">
-        <v>0</v>
+        <v>2300</v>
       </c>
       <c r="F94">
-        <v>0</v>
+        <v>2400</v>
       </c>
       <c r="G94">
-        <v>0</v>
+        <v>2400</v>
       </c>
       <c r="H94" t="s">
         <v>25</v>
@@ -2957,13 +2956,13 @@
         <v>115</v>
       </c>
       <c r="E95">
-        <v>0</v>
+        <v>2400</v>
       </c>
       <c r="F95">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="G95">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="H95" t="s">
         <v>26</v>
@@ -2983,13 +2982,13 @@
         <v>120</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="F96">
-        <v>0</v>
+        <v>2600</v>
       </c>
       <c r="G96">
-        <v>0</v>
+        <v>2600</v>
       </c>
       <c r="H96" t="s">
         <v>27</v>
@@ -3009,13 +3008,13 @@
         <v>125</v>
       </c>
       <c r="E97">
-        <v>0</v>
+        <v>2600</v>
       </c>
       <c r="F97">
-        <v>0</v>
+        <v>2700</v>
       </c>
       <c r="G97">
-        <v>0</v>
+        <v>2700</v>
       </c>
       <c r="H97" t="s">
         <v>28</v>
@@ -3035,13 +3034,13 @@
         <v>130</v>
       </c>
       <c r="E98">
-        <v>0</v>
+        <v>2700</v>
       </c>
       <c r="F98">
-        <v>0</v>
+        <v>2800</v>
       </c>
       <c r="G98">
-        <v>0</v>
+        <v>2800</v>
       </c>
       <c r="H98" t="s">
         <v>29</v>
@@ -3061,13 +3060,13 @@
         <v>135</v>
       </c>
       <c r="E99">
-        <v>0</v>
+        <v>2800</v>
       </c>
       <c r="F99">
-        <v>0</v>
+        <v>2900</v>
       </c>
       <c r="G99">
-        <v>0</v>
+        <v>2900</v>
       </c>
       <c r="H99" t="s">
         <v>20</v>
@@ -3087,13 +3086,13 @@
         <v>140</v>
       </c>
       <c r="E100">
-        <v>0</v>
+        <v>2900</v>
       </c>
       <c r="F100">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="G100">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="H100" t="s">
         <v>21</v>
@@ -3113,13 +3112,13 @@
         <v>145</v>
       </c>
       <c r="E101">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="F101">
-        <v>0</v>
+        <v>3100</v>
       </c>
       <c r="G101">
-        <v>0</v>
+        <v>3100</v>
       </c>
       <c r="H101" t="s">
         <v>22</v>
@@ -3139,13 +3138,13 @@
         <v>150</v>
       </c>
       <c r="E102">
-        <v>0</v>
+        <v>3100</v>
       </c>
       <c r="F102">
-        <v>0</v>
+        <v>3200</v>
       </c>
       <c r="G102">
-        <v>0</v>
+        <v>3200</v>
       </c>
       <c r="H102" t="s">
         <v>23</v>
@@ -3165,13 +3164,13 @@
         <v>155</v>
       </c>
       <c r="E103">
-        <v>0</v>
+        <v>3200</v>
       </c>
       <c r="F103">
-        <v>0</v>
+        <v>3300</v>
       </c>
       <c r="G103">
-        <v>0</v>
+        <v>3300</v>
       </c>
       <c r="H103" t="s">
         <v>24</v>
@@ -3191,13 +3190,13 @@
         <v>160</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>3300</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>3400</v>
       </c>
       <c r="G104">
-        <v>0</v>
+        <v>3400</v>
       </c>
       <c r="H104" t="s">
         <v>26</v>
@@ -3217,13 +3216,13 @@
         <v>165</v>
       </c>
       <c r="E105">
-        <v>0</v>
+        <v>3400</v>
       </c>
       <c r="F105">
-        <v>0</v>
+        <v>3500</v>
       </c>
       <c r="G105">
-        <v>0</v>
+        <v>3500</v>
       </c>
       <c r="H105" t="s">
         <v>27</v>
@@ -3243,13 +3242,13 @@
         <v>170</v>
       </c>
       <c r="E106">
-        <v>0</v>
+        <v>3500</v>
       </c>
       <c r="F106">
-        <v>0</v>
+        <v>3600</v>
       </c>
       <c r="G106">
-        <v>0</v>
+        <v>3600</v>
       </c>
       <c r="H106" t="s">
         <v>29</v>
@@ -3269,13 +3268,13 @@
         <v>175</v>
       </c>
       <c r="E107">
-        <v>0</v>
+        <v>3600</v>
       </c>
       <c r="F107">
-        <v>0</v>
+        <v>3700</v>
       </c>
       <c r="G107">
-        <v>0</v>
+        <v>3700</v>
       </c>
       <c r="H107" t="s">
         <v>30</v>
